--- a/raw_data/umd/2023/RL_2023-07-24_SBay.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-24_SBay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_24_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67558404-EE39-474C-84F0-92FA1F979268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155E6B4-CD23-F445-8DE8-BFE21FDD6AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{73E47DF1-A169-D848-A130-DDC748F34FC7}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SBay</t>
-  </si>
-  <si>
-    <t>Location ID = 912484ce-4543-4fe9-a67d-b35027c3a772</t>
-  </si>
-  <si>
-    <t>Latitude = 46.8611167 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.11 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-24 10:05:26</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:14</t>
-  </si>
-  <si>
-    <t>Readings = 75</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8CF123-5FC3-F24E-B5E1-2C3DA8A81587}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,202 +994,1157 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45131.420439814814</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.5897120000000005</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.0432730000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100.5294</v>
+      </c>
+      <c r="E2" s="3">
+        <v>110.7479</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5.2003840000000003E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99821110000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7.1985750000000001E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.1939169999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.16892</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.1904708</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.067445</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.1241507</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.73817849999999996</v>
+      </c>
+      <c r="O2" s="3">
+        <v>996.21979999999996</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45131.420451388891</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.6583869999999994</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.2306980000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100.4744</v>
+      </c>
+      <c r="E3" s="3">
+        <v>110.68380000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5.1972789999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99821070000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7.1944480000000005E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.33056</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.1753</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.2128476</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.11754</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.14849979999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.73071830000000004</v>
+      </c>
+      <c r="O3" s="3">
+        <v>996.26340000000005</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45131.42046296296</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.6599070000000005</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.2405689999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100.4717</v>
+      </c>
+      <c r="E4" s="3">
+        <v>110.6811</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.197148E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99821079999999995</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7.1942720000000002E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.3373349999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.17557</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.21452289999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.12138</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.14990890000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.7299582</v>
+      </c>
+      <c r="O4" s="3">
+        <v>996.26499999999999</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45131.420474537037</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.6614280000000008</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.2504400000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100.46899999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>110.6784</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.1970170000000003E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99821079999999995</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7.1940959999999998E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.344109</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20.175830000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.21619820000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.1252200000000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.15131810000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.72919820000000002</v>
+      </c>
+      <c r="O5" s="3">
+        <v>996.26660000000004</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45131.420486111114</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.5104349999999993</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.2006769999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100.47239999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>110.6798</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.1970849999999999E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99821059999999995</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7.1941870000000005E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.175834</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20.17118</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.1913937</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.0692919999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.13425529999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.70566090000000004</v>
+      </c>
+      <c r="O6" s="3">
+        <v>996.20690000000002</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45131.420497685183</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.5035769999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.2018760000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100.47150000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>110.6786</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.1970269999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.9982105</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7.1941089999999999E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.169522</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20.171050000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.1904894</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.067248</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.13380590000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.70421670000000003</v>
+      </c>
+      <c r="O7" s="3">
+        <v>996.20450000000005</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45131.42050925926</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.4967199999999998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.2030750000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100.4706</v>
+      </c>
+      <c r="E8" s="3">
+        <v>110.67740000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.1969689999999999E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.9982105</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.1940299999999999E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.1632100000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20.170919999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.18958520000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.0652029999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.13335649999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.70277259999999997</v>
+      </c>
+      <c r="O8" s="3">
+        <v>996.20209999999997</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45131.420520833337</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.5658700000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.2709000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100.46040000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>110.64019999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.1951730000000002E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99821029999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.1963440000000004E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.2188969999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20.182860000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.40434619999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.5574170000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.28428369999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.7026078</v>
+      </c>
+      <c r="O9" s="3">
+        <v>996.20119999999997</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45131.420532407406</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.5662120000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.2734750000000004</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100.4599</v>
+      </c>
+      <c r="E10" s="3">
+        <v>110.6382</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5.1950759999999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99821020000000005</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7.1964749999999994E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.2181249999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20.183409999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.41560580000000003</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.583245</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.29219990000000001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.70206089999999999</v>
+      </c>
+      <c r="O10" s="3">
+        <v>996.19979999999998</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45131.420543981483</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.566554</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.2760509999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100.4594</v>
+      </c>
+      <c r="E11" s="3">
+        <v>110.6362</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.1949799999999997E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99821020000000005</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7.1966050000000004E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.2173529999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20.183959999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.4268652</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.609073</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.3001161</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.70151410000000003</v>
+      </c>
+      <c r="O11" s="3">
+        <v>996.19839999999999</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45131.420555555553</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.5680580000000006</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.1586530000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100.43089999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>110.623</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.1943339999999998E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99820980000000004</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7.1909989999999993E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.174736</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20.174489999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.97115189999999996</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.863442</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.6827877</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O12" s="3">
+        <v>996.24400000000003</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45131.420567129629</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.5696549999999991</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.1539099999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100.42910000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>110.62139999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.1942559999999999E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99820980000000004</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7.1907499999999999E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.1736279999999999</v>
+      </c>
+      <c r="J13" s="3">
+        <v>20.17426</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.0056160000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2.942806</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.70701860000000005</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O13" s="3">
+        <v>996.24639999999999</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45131.420578703706</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.5313389999999991</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.412344</v>
+      </c>
+      <c r="D14" s="3">
+        <v>97.11842</v>
+      </c>
+      <c r="E14" s="3">
+        <v>106.9936</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.0183909999999998E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99821009999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.9547919999999999E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.054756</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20.16741</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.4561120000000001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.9841899999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.023749</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.69442950000000003</v>
+      </c>
+      <c r="O14" s="3">
+        <v>996.24770000000001</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45131.420590277776</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.5291490000000003</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5.4244490000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>96.930310000000006</v>
+      </c>
+      <c r="E15" s="3">
+        <v>106.7878</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.0084179999999999E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99821009999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.9413100000000005E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0470459999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20.166820000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.493349</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4.0701840000000002</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.0499289999999999</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.69400070000000003</v>
+      </c>
+      <c r="O15" s="3">
+        <v>996.24879999999996</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45131.420601851853</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.5269580000000005</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.4365550000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>96.742220000000003</v>
+      </c>
+      <c r="E16" s="3">
+        <v>106.5821</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.9984439999999998E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99821009999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.9278270000000003E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.039336</v>
+      </c>
+      <c r="J16" s="3">
+        <v>20.166229999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.5305850000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.1561779999999997</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.0761080000000001</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.69357199999999997</v>
+      </c>
+      <c r="O16" s="3">
+        <v>996.24980000000005</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45131.420613425929</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.4508980000000005</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.3378959999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>96.442269999999994</v>
+      </c>
+      <c r="E17" s="3">
+        <v>106.2508</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.9823819999999998E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99821959999999998</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.8728919999999999E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.1155729999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20.166679999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.1204399999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.515714</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.490818</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.69334519999999999</v>
+      </c>
+      <c r="O17" s="3">
+        <v>996.25810000000001</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45131.420624999999</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.4457500000000003</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.3382399999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>96.350610000000003</v>
+      </c>
+      <c r="E18" s="3">
+        <v>106.1502</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.9775060000000003E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99822010000000005</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.8644689999999994E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.1172150000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20.16656</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.1635779999999998</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.6152110000000004</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.521147</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.69316149999999999</v>
+      </c>
+      <c r="O18" s="3">
+        <v>996.2586</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45131.420636574076</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.4406029999999994</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.3385829999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>96.258960000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>106.0496</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.9726289999999999E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99822069999999996</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.8560469999999998E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.1188560000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>20.166429999999998</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.2067169999999998</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5.7147069999999998</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.5514760000000001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.69297779999999998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>996.25909999999999</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45131.420648148145</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.3709310000000006</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.5054509999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>94.985259999999997</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.90779999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.9171939999999997E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99823539999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.8144140000000006E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.2470909999999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20.118749999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2.539377</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.4790749999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.7853600000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O20" s="3">
+        <v>996.20849999999996</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45131.420659722222</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.3653139999999997</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.5124769999999996</v>
+      </c>
+      <c r="D21" s="3">
+        <v>94.908510000000007</v>
+      </c>
+      <c r="E21" s="3">
+        <v>104.8379</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.9138019999999998E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99823649999999997</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.8109520000000007E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.256084</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.11608</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2.5712009999999998</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6.552289</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1.807734</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O21" s="3">
+        <v>996.20579999999995</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45131.420671296299</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.3596970000000006</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.5195040000000004</v>
+      </c>
+      <c r="D22" s="3">
+        <v>94.831760000000003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>104.768</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.9104099999999998E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.9982375</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.8074899999999994E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.265077</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.113409999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.603024</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.625502</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.8301080000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O22" s="3">
+        <v>996.20320000000004</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45131.420439814814</v>
+        <v>45131.420682870368</v>
       </c>
       <c r="B23" s="3">
-        <v>9.5897120000000005</v>
+        <v>9.3795979999999997</v>
       </c>
       <c r="C23" s="3">
-        <v>5.0432730000000001</v>
+        <v>5.5203139999999999</v>
       </c>
       <c r="D23" s="3">
-        <v>100.5294</v>
+        <v>94.29025</v>
       </c>
       <c r="E23" s="3">
-        <v>110.7479</v>
+        <v>104.36709999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>5.2003840000000003E-2</v>
+        <v>4.8909029999999999E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99821110000000002</v>
+        <v>0.99825560000000002</v>
       </c>
       <c r="H23" s="3">
-        <v>7.1985750000000001E-2</v>
+        <v>6.7823910000000001E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>1.1939169999999999</v>
+        <v>1.2922929999999999</v>
       </c>
       <c r="J23" s="3">
-        <v>20.16892</v>
+        <v>19.954740000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>0.1904708</v>
+        <v>2.8545340000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>1.067445</v>
+        <v>7.2085330000000001</v>
       </c>
       <c r="M23" s="3">
-        <v>0.1241507</v>
+        <v>2.0069379999999999</v>
       </c>
       <c r="N23" s="3">
-        <v>0.73817849999999996</v>
+        <v>0.68540630000000002</v>
       </c>
       <c r="O23" s="3">
-        <v>996.21979999999996</v>
+        <v>996.25260000000003</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -1240,49 +2152,49 @@
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45131.420451388891</v>
+        <v>45131.420694444445</v>
       </c>
       <c r="B24" s="3">
-        <v>9.6583869999999994</v>
+        <v>9.3791419999999999</v>
       </c>
       <c r="C24" s="3">
-        <v>5.2306980000000003</v>
+        <v>5.5242190000000004</v>
       </c>
       <c r="D24" s="3">
-        <v>100.4744</v>
+        <v>94.231170000000006</v>
       </c>
       <c r="E24" s="3">
-        <v>110.68380000000001</v>
+        <v>104.3188</v>
       </c>
       <c r="F24" s="3">
-        <v>5.1972789999999998E-2</v>
+        <v>4.888555E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99821070000000001</v>
+        <v>0.9982569</v>
       </c>
       <c r="H24" s="3">
-        <v>7.1944480000000005E-2</v>
+        <v>6.7800600000000003E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>1.33056</v>
+        <v>1.2966759999999999</v>
       </c>
       <c r="J24" s="3">
-        <v>20.1753</v>
+        <v>19.944880000000001</v>
       </c>
       <c r="K24" s="3">
-        <v>0.2128476</v>
+        <v>2.8758010000000001</v>
       </c>
       <c r="L24" s="3">
-        <v>1.11754</v>
+        <v>7.2576809999999998</v>
       </c>
       <c r="M24" s="3">
-        <v>0.14849979999999999</v>
+        <v>2.0218889999999998</v>
       </c>
       <c r="N24" s="3">
-        <v>0.73071830000000004</v>
+        <v>0.6849864</v>
       </c>
       <c r="O24" s="3">
-        <v>996.26340000000005</v>
+        <v>996.25419999999997</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -1290,49 +2202,49 @@
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45131.42046296296</v>
+        <v>45131.420706018522</v>
       </c>
       <c r="B25" s="3">
-        <v>9.6599070000000005</v>
+        <v>9.3786850000000008</v>
       </c>
       <c r="C25" s="3">
-        <v>5.2405689999999998</v>
+        <v>5.5281229999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>100.4717</v>
+        <v>94.1721</v>
       </c>
       <c r="E25" s="3">
-        <v>110.6811</v>
+        <v>104.2704</v>
       </c>
       <c r="F25" s="3">
-        <v>5.197148E-2</v>
+        <v>4.8862080000000002E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99821079999999995</v>
+        <v>0.99825819999999998</v>
       </c>
       <c r="H25" s="3">
-        <v>7.1942720000000002E-2</v>
+        <v>6.7777279999999995E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>1.3373349999999999</v>
+        <v>1.301058</v>
       </c>
       <c r="J25" s="3">
-        <v>20.17557</v>
+        <v>19.935020000000002</v>
       </c>
       <c r="K25" s="3">
-        <v>0.21452289999999999</v>
+        <v>2.897068</v>
       </c>
       <c r="L25" s="3">
-        <v>1.12138</v>
+        <v>7.3068289999999996</v>
       </c>
       <c r="M25" s="3">
-        <v>0.14990890000000001</v>
+        <v>2.036842</v>
       </c>
       <c r="N25" s="3">
-        <v>0.7299582</v>
+        <v>0.68456649999999997</v>
       </c>
       <c r="O25" s="3">
-        <v>996.26499999999999</v>
+        <v>996.25570000000005</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -1340,49 +2252,49 @@
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45131.420474537037</v>
+        <v>45131.420717592591</v>
       </c>
       <c r="B26" s="3">
-        <v>9.6614280000000008</v>
+        <v>9.3920999999999992</v>
       </c>
       <c r="C26" s="3">
-        <v>5.2504400000000002</v>
+        <v>5.4583219999999999</v>
       </c>
       <c r="D26" s="3">
-        <v>100.46899999999999</v>
+        <v>94.034300000000002</v>
       </c>
       <c r="E26" s="3">
-        <v>110.6784</v>
+        <v>104.34229999999999</v>
       </c>
       <c r="F26" s="3">
-        <v>5.1970170000000003E-2</v>
+        <v>4.8894899999999998E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99821079999999995</v>
+        <v>0.99830730000000001</v>
       </c>
       <c r="H26" s="3">
-        <v>7.1940959999999998E-2</v>
+        <v>6.7822499999999994E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>1.344109</v>
+        <v>1.2054819999999999</v>
       </c>
       <c r="J26" s="3">
-        <v>20.175830000000001</v>
+        <v>19.783390000000001</v>
       </c>
       <c r="K26" s="3">
-        <v>0.21619820000000001</v>
+        <v>3.5040909999999998</v>
       </c>
       <c r="L26" s="3">
-        <v>1.1252200000000001</v>
+        <v>8.7025500000000005</v>
       </c>
       <c r="M26" s="3">
-        <v>0.15131810000000001</v>
+        <v>2.4636209999999998</v>
       </c>
       <c r="N26" s="3">
-        <v>0.72919820000000002</v>
+        <v>0.67668859999999997</v>
       </c>
       <c r="O26" s="3">
-        <v>996.26660000000004</v>
+        <v>996.18949999999995</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1390,49 +2302,49 @@
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45131.420486111114</v>
+        <v>45131.420729166668</v>
       </c>
       <c r="B27" s="3">
-        <v>9.5104349999999993</v>
+        <v>9.3933029999999995</v>
       </c>
       <c r="C27" s="3">
-        <v>5.2006769999999998</v>
+        <v>5.4543670000000004</v>
       </c>
       <c r="D27" s="3">
-        <v>100.47239999999999</v>
+        <v>94.015029999999996</v>
       </c>
       <c r="E27" s="3">
-        <v>110.6798</v>
+        <v>104.3378</v>
       </c>
       <c r="F27" s="3">
-        <v>5.1970849999999999E-2</v>
+        <v>4.8892610000000003E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99821059999999995</v>
+        <v>0.99831040000000004</v>
       </c>
       <c r="H27" s="3">
-        <v>7.1941870000000005E-2</v>
+        <v>6.7819589999999999E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>1.175834</v>
+        <v>1.2006939999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>20.17118</v>
+        <v>19.771419999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>0.1913937</v>
+        <v>3.5436079999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>1.0692919999999999</v>
+        <v>8.7935149999999993</v>
       </c>
       <c r="M27" s="3">
-        <v>0.13425529999999999</v>
+        <v>2.4914049999999999</v>
       </c>
       <c r="N27" s="3">
-        <v>0.70566090000000004</v>
+        <v>0.67608009999999996</v>
       </c>
       <c r="O27" s="3">
-        <v>996.20690000000002</v>
+        <v>996.18690000000004</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1440,49 +2352,49 @@
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45131.420497685183</v>
+        <v>45131.420740740738</v>
       </c>
       <c r="B28" s="3">
-        <v>9.5035769999999999</v>
+        <v>9.3945059999999998</v>
       </c>
       <c r="C28" s="3">
-        <v>5.2018760000000004</v>
+        <v>5.4504130000000002</v>
       </c>
       <c r="D28" s="3">
-        <v>100.47150000000001</v>
+        <v>93.995750000000001</v>
       </c>
       <c r="E28" s="3">
-        <v>110.6786</v>
+        <v>104.3334</v>
       </c>
       <c r="F28" s="3">
-        <v>5.1970269999999999E-2</v>
+        <v>4.8890309999999999E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.9982105</v>
+        <v>0.99831349999999996</v>
       </c>
       <c r="H28" s="3">
-        <v>7.1941089999999999E-2</v>
+        <v>6.7816680000000004E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>1.169522</v>
+        <v>1.1959059999999999</v>
       </c>
       <c r="J28" s="3">
-        <v>20.171050000000001</v>
+        <v>19.759440000000001</v>
       </c>
       <c r="K28" s="3">
-        <v>0.1904894</v>
+        <v>3.5831249999999999</v>
       </c>
       <c r="L28" s="3">
-        <v>1.067248</v>
+        <v>8.8844799999999999</v>
       </c>
       <c r="M28" s="3">
-        <v>0.13380590000000001</v>
+        <v>2.5191880000000002</v>
       </c>
       <c r="N28" s="3">
-        <v>0.70421670000000003</v>
+        <v>0.6754715</v>
       </c>
       <c r="O28" s="3">
-        <v>996.20450000000005</v>
+        <v>996.18430000000001</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -1490,49 +2402,49 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45131.42050925926</v>
+        <v>45131.420752314814</v>
       </c>
       <c r="B29" s="3">
-        <v>9.4967199999999998</v>
+        <v>9.4075980000000001</v>
       </c>
       <c r="C29" s="3">
-        <v>5.2030750000000001</v>
+        <v>5.3726440000000002</v>
       </c>
       <c r="D29" s="3">
-        <v>100.4706</v>
+        <v>93.233329999999995</v>
       </c>
       <c r="E29" s="3">
-        <v>110.67740000000001</v>
+        <v>103.97620000000001</v>
       </c>
       <c r="F29" s="3">
-        <v>5.1969689999999999E-2</v>
+        <v>4.8716349999999999E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.9982105</v>
+        <v>0.99833099999999997</v>
       </c>
       <c r="H29" s="3">
-        <v>7.1940299999999999E-2</v>
+        <v>6.7584539999999999E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>1.1632100000000001</v>
+        <v>1.25373</v>
       </c>
       <c r="J29" s="3">
-        <v>20.170919999999999</v>
+        <v>19.665320000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>0.18958520000000001</v>
+        <v>4.0554699999999997</v>
       </c>
       <c r="L29" s="3">
-        <v>1.0652029999999999</v>
+        <v>9.9734379999999998</v>
       </c>
       <c r="M29" s="3">
-        <v>0.13335649999999999</v>
+        <v>2.8512789999999999</v>
       </c>
       <c r="N29" s="3">
-        <v>0.70277259999999997</v>
+        <v>0.66764319999999999</v>
       </c>
       <c r="O29" s="3">
-        <v>996.20209999999997</v>
+        <v>996.19100000000003</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -1540,49 +2452,49 @@
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45131.420520833337</v>
+        <v>45131.420763888891</v>
       </c>
       <c r="B30" s="3">
-        <v>9.5658700000000003</v>
+        <v>9.4086149999999993</v>
       </c>
       <c r="C30" s="3">
-        <v>5.2709000000000001</v>
+        <v>5.3667379999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>100.46040000000001</v>
+        <v>93.18777</v>
       </c>
       <c r="E30" s="3">
-        <v>110.64019999999999</v>
+        <v>103.958</v>
       </c>
       <c r="F30" s="3">
-        <v>5.1951730000000002E-2</v>
+        <v>4.870741E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99821029999999999</v>
+        <v>0.99833309999999997</v>
       </c>
       <c r="H30" s="3">
-        <v>7.1963440000000004E-2</v>
+        <v>6.7572690000000005E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>1.2188969999999999</v>
+        <v>1.254791</v>
       </c>
       <c r="J30" s="3">
-        <v>20.182860000000002</v>
+        <v>19.656700000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.40434619999999999</v>
+        <v>4.0955139999999997</v>
       </c>
       <c r="L30" s="3">
-        <v>1.5574170000000001</v>
+        <v>10.065670000000001</v>
       </c>
       <c r="M30" s="3">
-        <v>0.28428369999999997</v>
+        <v>2.8794330000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>0.7026078</v>
+        <v>0.66703140000000005</v>
       </c>
       <c r="O30" s="3">
-        <v>996.20119999999997</v>
+        <v>996.18979999999999</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -1590,49 +2502,49 @@
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45131.420532407406</v>
+        <v>45131.420775462961</v>
       </c>
       <c r="B31" s="3">
-        <v>9.5662120000000002</v>
+        <v>9.4096320000000002</v>
       </c>
       <c r="C31" s="3">
-        <v>5.2734750000000004</v>
+        <v>5.3608330000000004</v>
       </c>
       <c r="D31" s="3">
-        <v>100.4599</v>
+        <v>93.142200000000003</v>
       </c>
       <c r="E31" s="3">
-        <v>110.6382</v>
+        <v>103.9397</v>
       </c>
       <c r="F31" s="3">
-        <v>5.1950759999999999E-2</v>
+        <v>4.8698480000000002E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99821020000000005</v>
+        <v>0.99833519999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>7.1964749999999994E-2</v>
+        <v>6.7560839999999997E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>1.2181249999999999</v>
+        <v>1.255852</v>
       </c>
       <c r="J31" s="3">
-        <v>20.183409999999999</v>
+        <v>19.64808</v>
       </c>
       <c r="K31" s="3">
-        <v>0.41560580000000003</v>
+        <v>4.1355579999999996</v>
       </c>
       <c r="L31" s="3">
-        <v>1.583245</v>
+        <v>10.1579</v>
       </c>
       <c r="M31" s="3">
-        <v>0.29219990000000001</v>
+        <v>2.9075869999999999</v>
       </c>
       <c r="N31" s="3">
-        <v>0.70206089999999999</v>
+        <v>0.6664196</v>
       </c>
       <c r="O31" s="3">
-        <v>996.19979999999998</v>
+        <v>996.18870000000004</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -1640,49 +2552,49 @@
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45131.420543981483</v>
+        <v>45131.420787037037</v>
       </c>
       <c r="B32" s="3">
-        <v>9.566554</v>
+        <v>9.3657380000000003</v>
       </c>
       <c r="C32" s="3">
-        <v>5.2760509999999998</v>
+        <v>5.3825450000000004</v>
       </c>
       <c r="D32" s="3">
-        <v>100.4594</v>
+        <v>92.836299999999994</v>
       </c>
       <c r="E32" s="3">
-        <v>110.6362</v>
+        <v>103.7542</v>
       </c>
       <c r="F32" s="3">
-        <v>5.1949799999999997E-2</v>
+        <v>4.8607869999999997E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99821020000000005</v>
+        <v>0.99834849999999997</v>
       </c>
       <c r="H32" s="3">
-        <v>7.1966050000000004E-2</v>
+        <v>6.7227690000000007E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>1.2173529999999999</v>
+        <v>1.278259</v>
       </c>
       <c r="J32" s="3">
-        <v>20.183959999999999</v>
+        <v>19.499310000000001</v>
       </c>
       <c r="K32" s="3">
-        <v>0.4268652</v>
+        <v>4.4898020000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>1.609073</v>
+        <v>12.1389</v>
       </c>
       <c r="M32" s="3">
-        <v>0.3001161</v>
+        <v>3.5116700000000001</v>
       </c>
       <c r="N32" s="3">
-        <v>0.70151410000000003</v>
+        <v>0.65860280000000004</v>
       </c>
       <c r="O32" s="3">
-        <v>996.19839999999999</v>
+        <v>996.24929999999995</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -1690,49 +2602,49 @@
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45131.420555555553</v>
+        <v>45131.420798611114</v>
       </c>
       <c r="B33" s="3">
-        <v>9.5680580000000006</v>
+        <v>9.363588</v>
       </c>
       <c r="C33" s="3">
-        <v>5.1586530000000002</v>
+        <v>5.3820009999999998</v>
       </c>
       <c r="D33" s="3">
-        <v>100.43089999999999</v>
+        <v>92.801959999999994</v>
       </c>
       <c r="E33" s="3">
-        <v>110.623</v>
+        <v>103.73569999999999</v>
       </c>
       <c r="F33" s="3">
-        <v>5.1943339999999998E-2</v>
+        <v>4.8598860000000001E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99820980000000004</v>
+        <v>0.99834959999999995</v>
       </c>
       <c r="H33" s="3">
-        <v>7.1909989999999993E-2</v>
+        <v>6.7203840000000001E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>1.174736</v>
+        <v>1.2808349999999999</v>
       </c>
       <c r="J33" s="3">
-        <v>20.174489999999999</v>
+        <v>19.488900000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>0.97115189999999996</v>
+        <v>4.5201799999999999</v>
       </c>
       <c r="L33" s="3">
-        <v>2.863442</v>
+        <v>12.273809999999999</v>
       </c>
       <c r="M33" s="3">
-        <v>0.6827877</v>
+        <v>3.5528089999999999</v>
       </c>
       <c r="N33" s="3">
-        <v>0.70199999999999996</v>
+        <v>0.65799030000000003</v>
       </c>
       <c r="O33" s="3">
-        <v>996.24400000000003</v>
+        <v>996.25279999999998</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -1740,49 +2652,49 @@
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45131.420567129629</v>
+        <v>45131.420810185184</v>
       </c>
       <c r="B34" s="3">
-        <v>9.5696549999999991</v>
+        <v>9.36144</v>
       </c>
       <c r="C34" s="3">
-        <v>5.1539099999999998</v>
+        <v>5.3814580000000003</v>
       </c>
       <c r="D34" s="3">
-        <v>100.42910000000001</v>
+        <v>92.767610000000005</v>
       </c>
       <c r="E34" s="3">
-        <v>110.62139999999999</v>
+        <v>103.71720000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>5.1942559999999999E-2</v>
+        <v>4.8589849999999997E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99820980000000004</v>
+        <v>0.99835070000000004</v>
       </c>
       <c r="H34" s="3">
-        <v>7.1907499999999999E-2</v>
+        <v>6.7179989999999995E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>1.1736279999999999</v>
+        <v>1.2834099999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>20.17426</v>
+        <v>19.478480000000001</v>
       </c>
       <c r="K34" s="3">
-        <v>1.0056160000000001</v>
+        <v>4.5505570000000004</v>
       </c>
       <c r="L34" s="3">
-        <v>2.942806</v>
+        <v>12.408720000000001</v>
       </c>
       <c r="M34" s="3">
-        <v>0.70701860000000005</v>
+        <v>3.5939489999999998</v>
       </c>
       <c r="N34" s="3">
-        <v>0.70199999999999996</v>
+        <v>0.65737780000000001</v>
       </c>
       <c r="O34" s="3">
-        <v>996.24639999999999</v>
+        <v>996.25630000000001</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -1790,49 +2702,49 @@
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45131.420578703706</v>
+        <v>45131.42082175926</v>
       </c>
       <c r="B35" s="3">
-        <v>9.5313389999999991</v>
+        <v>9.4225119999999993</v>
       </c>
       <c r="C35" s="3">
-        <v>5.412344</v>
+        <v>5.5023429999999998</v>
       </c>
       <c r="D35" s="3">
-        <v>97.11842</v>
+        <v>92.129480000000001</v>
       </c>
       <c r="E35" s="3">
-        <v>106.9936</v>
+        <v>103.6426</v>
       </c>
       <c r="F35" s="3">
-        <v>5.0183909999999998E-2</v>
+        <v>4.8550490000000002E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99821009999999999</v>
+        <v>0.99840839999999997</v>
       </c>
       <c r="H35" s="3">
-        <v>6.9547919999999999E-2</v>
+        <v>6.7340419999999998E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>1.054756</v>
+        <v>1.268983</v>
       </c>
       <c r="J35" s="3">
-        <v>20.16741</v>
+        <v>19.37069</v>
       </c>
       <c r="K35" s="3">
-        <v>1.4561120000000001</v>
+        <v>5.5461159999999996</v>
       </c>
       <c r="L35" s="3">
-        <v>3.9841899999999999</v>
+        <v>13.56358</v>
       </c>
       <c r="M35" s="3">
-        <v>1.023749</v>
+        <v>3.944922</v>
       </c>
       <c r="N35" s="3">
-        <v>0.69442950000000003</v>
+        <v>0.66501089999999996</v>
       </c>
       <c r="O35" s="3">
-        <v>996.24770000000001</v>
+        <v>996.22310000000004</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -1840,49 +2752,49 @@
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45131.420590277776</v>
+        <v>45131.42083333333</v>
       </c>
       <c r="B36" s="3">
-        <v>9.5291490000000003</v>
+        <v>9.4249010000000002</v>
       </c>
       <c r="C36" s="3">
-        <v>5.4244490000000001</v>
+        <v>5.5095330000000002</v>
       </c>
       <c r="D36" s="3">
-        <v>96.930310000000006</v>
+        <v>92.087130000000002</v>
       </c>
       <c r="E36" s="3">
-        <v>106.7878</v>
+        <v>103.6343</v>
       </c>
       <c r="F36" s="3">
-        <v>5.0084179999999999E-2</v>
+        <v>4.8546249999999999E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99821009999999999</v>
+        <v>0.99841190000000002</v>
       </c>
       <c r="H36" s="3">
-        <v>6.9413100000000005E-2</v>
+        <v>6.7341739999999997E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>1.0470459999999999</v>
+        <v>1.268675</v>
       </c>
       <c r="J36" s="3">
-        <v>20.166820000000001</v>
+        <v>19.3613</v>
       </c>
       <c r="K36" s="3">
-        <v>1.493349</v>
+        <v>5.609477</v>
       </c>
       <c r="L36" s="3">
-        <v>4.0701840000000002</v>
+        <v>13.672929999999999</v>
       </c>
       <c r="M36" s="3">
-        <v>1.0499289999999999</v>
+        <v>3.9782009999999999</v>
       </c>
       <c r="N36" s="3">
-        <v>0.69400070000000003</v>
+        <v>0.66525520000000005</v>
       </c>
       <c r="O36" s="3">
-        <v>996.24879999999996</v>
+        <v>996.22270000000003</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -1890,49 +2802,49 @@
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45131.420601851853</v>
+        <v>45131.420844907407</v>
       </c>
       <c r="B37" s="3">
-        <v>9.5269580000000005</v>
+        <v>9.427289</v>
       </c>
       <c r="C37" s="3">
-        <v>5.4365550000000002</v>
+        <v>5.516724</v>
       </c>
       <c r="D37" s="3">
-        <v>96.742220000000003</v>
+        <v>92.044780000000003</v>
       </c>
       <c r="E37" s="3">
-        <v>106.5821</v>
+        <v>103.626</v>
       </c>
       <c r="F37" s="3">
-        <v>4.9984439999999998E-2</v>
+        <v>4.8542019999999998E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99821009999999999</v>
+        <v>0.99841539999999995</v>
       </c>
       <c r="H37" s="3">
-        <v>6.9278270000000003E-2</v>
+        <v>6.7343070000000005E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>1.039336</v>
+        <v>1.268367</v>
       </c>
       <c r="J37" s="3">
-        <v>20.166229999999999</v>
+        <v>19.35191</v>
       </c>
       <c r="K37" s="3">
-        <v>1.5305850000000001</v>
+        <v>5.6728389999999997</v>
       </c>
       <c r="L37" s="3">
-        <v>4.1561779999999997</v>
+        <v>13.78228</v>
       </c>
       <c r="M37" s="3">
-        <v>1.0761080000000001</v>
+        <v>4.0114799999999997</v>
       </c>
       <c r="N37" s="3">
-        <v>0.69357199999999997</v>
+        <v>0.66549959999999997</v>
       </c>
       <c r="O37" s="3">
-        <v>996.24980000000005</v>
+        <v>996.22220000000004</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -1940,49 +2852,49 @@
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45131.420613425929</v>
+        <v>45131.420856481483</v>
       </c>
       <c r="B38" s="3">
-        <v>9.4508980000000005</v>
+        <v>9.2382489999999997</v>
       </c>
       <c r="C38" s="3">
-        <v>5.3378959999999998</v>
+        <v>5.5546179999999996</v>
       </c>
       <c r="D38" s="3">
-        <v>96.442269999999994</v>
+        <v>91.936220000000006</v>
       </c>
       <c r="E38" s="3">
-        <v>106.2508</v>
+        <v>103.7393</v>
       </c>
       <c r="F38" s="3">
-        <v>4.9823819999999998E-2</v>
+        <v>4.8595640000000002E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99821959999999998</v>
+        <v>0.9984362</v>
       </c>
       <c r="H38" s="3">
-        <v>6.8728919999999999E-2</v>
+        <v>6.742252E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>1.1155729999999999</v>
+        <v>1.2953710000000001</v>
       </c>
       <c r="J38" s="3">
-        <v>20.166679999999999</v>
+        <v>19.168600000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>2.1204399999999999</v>
+        <v>5.9122339999999998</v>
       </c>
       <c r="L38" s="3">
-        <v>5.515714</v>
+        <v>14.301819999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>1.490818</v>
+        <v>4.1701350000000001</v>
       </c>
       <c r="N38" s="3">
-        <v>0.69334519999999999</v>
+        <v>0.6503215</v>
       </c>
       <c r="O38" s="3">
-        <v>996.25810000000001</v>
+        <v>996.20389999999998</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -1990,49 +2902,49 @@
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45131.420624999999</v>
+        <v>45131.420868055553</v>
       </c>
       <c r="B39" s="3">
-        <v>9.4457500000000003</v>
+        <v>9.2293219999999998</v>
       </c>
       <c r="C39" s="3">
-        <v>5.3382399999999999</v>
+        <v>5.5594349999999997</v>
       </c>
       <c r="D39" s="3">
-        <v>96.350610000000003</v>
+        <v>91.915539999999993</v>
       </c>
       <c r="E39" s="3">
-        <v>106.1502</v>
+        <v>103.7437</v>
       </c>
       <c r="F39" s="3">
-        <v>4.9775060000000003E-2</v>
+        <v>4.8597630000000003E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99822010000000005</v>
+        <v>0.99843859999999995</v>
       </c>
       <c r="H39" s="3">
-        <v>6.8644689999999994E-2</v>
+        <v>6.7430439999999994E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>1.1172150000000001</v>
+        <v>1.296529</v>
       </c>
       <c r="J39" s="3">
-        <v>20.16656</v>
+        <v>19.156099999999999</v>
       </c>
       <c r="K39" s="3">
-        <v>2.1635779999999998</v>
+        <v>5.9481619999999999</v>
       </c>
       <c r="L39" s="3">
-        <v>5.6152110000000004</v>
+        <v>14.356949999999999</v>
       </c>
       <c r="M39" s="3">
-        <v>1.521147</v>
+        <v>4.1869319999999997</v>
       </c>
       <c r="N39" s="3">
-        <v>0.69316149999999999</v>
+        <v>0.64966500000000005</v>
       </c>
       <c r="O39" s="3">
-        <v>996.2586</v>
+        <v>996.20209999999997</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -2040,49 +2952,49 @@
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45131.420636574076</v>
+        <v>45131.42087962963</v>
       </c>
       <c r="B40" s="3">
-        <v>9.4406029999999994</v>
+        <v>9.2203949999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>5.3385829999999999</v>
+        <v>5.5642519999999998</v>
       </c>
       <c r="D40" s="3">
-        <v>96.258960000000002</v>
+        <v>91.894869999999997</v>
       </c>
       <c r="E40" s="3">
-        <v>106.0496</v>
+        <v>103.74809999999999</v>
       </c>
       <c r="F40" s="3">
-        <v>4.9726289999999999E-2</v>
+        <v>4.8599610000000001E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99822069999999996</v>
+        <v>0.99844100000000002</v>
       </c>
       <c r="H40" s="3">
-        <v>6.8560469999999998E-2</v>
+        <v>6.7438360000000003E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>1.1188560000000001</v>
+        <v>1.297688</v>
       </c>
       <c r="J40" s="3">
-        <v>20.166429999999998</v>
+        <v>19.14359</v>
       </c>
       <c r="K40" s="3">
-        <v>2.2067169999999998</v>
+        <v>5.984089</v>
       </c>
       <c r="L40" s="3">
-        <v>5.7147069999999998</v>
+        <v>14.41208</v>
       </c>
       <c r="M40" s="3">
-        <v>1.5514760000000001</v>
+        <v>4.203729</v>
       </c>
       <c r="N40" s="3">
-        <v>0.69297779999999998</v>
+        <v>0.64900849999999999</v>
       </c>
       <c r="O40" s="3">
-        <v>996.25909999999999</v>
+        <v>996.20029999999997</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -2090,49 +3002,49 @@
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45131.420648148145</v>
+        <v>45131.420891203707</v>
       </c>
       <c r="B41" s="3">
-        <v>9.3709310000000006</v>
+        <v>9.2923860000000005</v>
       </c>
       <c r="C41" s="3">
-        <v>5.5054509999999999</v>
+        <v>5.5902139999999996</v>
       </c>
       <c r="D41" s="3">
-        <v>94.985259999999997</v>
+        <v>91.882570000000001</v>
       </c>
       <c r="E41" s="3">
-        <v>104.90779999999999</v>
+        <v>103.85939999999999</v>
       </c>
       <c r="F41" s="3">
-        <v>4.9171939999999997E-2</v>
+        <v>4.8652849999999997E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99823539999999999</v>
+        <v>0.99846089999999998</v>
       </c>
       <c r="H41" s="3">
-        <v>6.8144140000000006E-2</v>
+        <v>6.7443240000000002E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>1.2470909999999999</v>
+        <v>1.1873530000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>20.118749999999999</v>
+        <v>18.982420000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>2.539377</v>
+        <v>6.7743890000000002</v>
       </c>
       <c r="L41" s="3">
-        <v>6.4790749999999999</v>
+        <v>16.243680000000001</v>
       </c>
       <c r="M41" s="3">
-        <v>1.7853600000000001</v>
+        <v>4.7628700000000004</v>
       </c>
       <c r="N41" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.64087329999999998</v>
       </c>
       <c r="O41" s="3">
-        <v>996.20849999999996</v>
+        <v>996.20889999999997</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -2140,49 +3052,49 @@
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45131.420659722222</v>
+        <v>45131.420902777776</v>
       </c>
       <c r="B42" s="3">
-        <v>9.3653139999999997</v>
+        <v>9.2921490000000002</v>
       </c>
       <c r="C42" s="3">
-        <v>5.5124769999999996</v>
+        <v>5.5925060000000002</v>
       </c>
       <c r="D42" s="3">
-        <v>94.908510000000007</v>
+        <v>91.879310000000004</v>
       </c>
       <c r="E42" s="3">
-        <v>104.8379</v>
+        <v>103.86799999999999</v>
       </c>
       <c r="F42" s="3">
-        <v>4.9138019999999998E-2</v>
+        <v>4.8656940000000003E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99823649999999997</v>
+        <v>0.99846259999999998</v>
       </c>
       <c r="H42" s="3">
-        <v>6.8109520000000007E-2</v>
+        <v>6.7445229999999995E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>1.256084</v>
+        <v>1.181891</v>
       </c>
       <c r="J42" s="3">
-        <v>20.11608</v>
+        <v>18.969439999999999</v>
       </c>
       <c r="K42" s="3">
-        <v>2.5712009999999998</v>
+        <v>6.8233730000000001</v>
       </c>
       <c r="L42" s="3">
-        <v>6.552289</v>
+        <v>16.356490000000001</v>
       </c>
       <c r="M42" s="3">
-        <v>1.807734</v>
+        <v>4.7973090000000003</v>
       </c>
       <c r="N42" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.64008900000000002</v>
       </c>
       <c r="O42" s="3">
-        <v>996.20579999999995</v>
+        <v>996.20899999999995</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -2190,2889 +3102,1839 @@
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45131.420671296299</v>
+        <v>45131.420914351853</v>
       </c>
       <c r="B43" s="3">
-        <v>9.3596970000000006</v>
+        <v>9.2919099999999997</v>
       </c>
       <c r="C43" s="3">
-        <v>5.5195040000000004</v>
+        <v>5.5947990000000001</v>
       </c>
       <c r="D43" s="3">
-        <v>94.831760000000003</v>
+        <v>91.876059999999995</v>
       </c>
       <c r="E43" s="3">
-        <v>104.768</v>
+        <v>103.8766</v>
       </c>
       <c r="F43" s="3">
-        <v>4.9104099999999998E-2</v>
+        <v>4.8661030000000001E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.9982375</v>
+        <v>0.99846409999999997</v>
       </c>
       <c r="H43" s="3">
-        <v>6.8074899999999994E-2</v>
+        <v>6.7447220000000002E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>1.265077</v>
+        <v>1.1764289999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>20.113409999999998</v>
+        <v>18.956469999999999</v>
       </c>
       <c r="K43" s="3">
-        <v>2.603024</v>
+        <v>6.872357</v>
       </c>
       <c r="L43" s="3">
-        <v>6.625502</v>
+        <v>16.46931</v>
       </c>
       <c r="M43" s="3">
-        <v>1.8301080000000001</v>
+        <v>4.8317480000000002</v>
       </c>
       <c r="N43" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.6393046</v>
       </c>
       <c r="O43" s="3">
-        <v>996.20320000000004</v>
-      </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+        <v>996.20910000000003</v>
+      </c>
+      <c r="P43" s="3">
+        <v>46.859454839999998</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>-91.110755269999999</v>
+      </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45131.420682870368</v>
+        <v>45131.420925925922</v>
       </c>
       <c r="B44" s="3">
-        <v>9.3795979999999997</v>
+        <v>9.4504599999999996</v>
       </c>
       <c r="C44" s="3">
-        <v>5.5203139999999999</v>
+        <v>5.845275</v>
       </c>
       <c r="D44" s="3">
-        <v>94.29025</v>
+        <v>91.565479999999994</v>
       </c>
       <c r="E44" s="3">
-        <v>104.36709999999999</v>
+        <v>103.72199999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>4.8909029999999999E-2</v>
+        <v>4.8584919999999997E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99825560000000002</v>
+        <v>0.99847229999999998</v>
       </c>
       <c r="H44" s="3">
-        <v>6.7823910000000001E-2</v>
+        <v>6.7411189999999996E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>1.2922929999999999</v>
+        <v>1.246435</v>
       </c>
       <c r="J44" s="3">
-        <v>19.954740000000001</v>
+        <v>18.908359999999998</v>
       </c>
       <c r="K44" s="3">
-        <v>2.8545340000000001</v>
+        <v>7.4214779999999996</v>
       </c>
       <c r="L44" s="3">
-        <v>7.2085330000000001</v>
+        <v>17.735209999999999</v>
       </c>
       <c r="M44" s="3">
-        <v>2.0069379999999999</v>
+        <v>5.2178190000000004</v>
       </c>
       <c r="N44" s="3">
-        <v>0.68540630000000002</v>
+        <v>0.64704030000000001</v>
       </c>
       <c r="O44" s="3">
-        <v>996.25260000000003</v>
-      </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+        <v>996.23519999999996</v>
+      </c>
+      <c r="P44" s="3">
+        <v>46.85944361</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>-91.110764489999994</v>
+      </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45131.420694444445</v>
+        <v>45131.420937499999</v>
       </c>
       <c r="B45" s="3">
-        <v>9.3791419999999999</v>
+        <v>9.4608550000000005</v>
       </c>
       <c r="C45" s="3">
-        <v>5.5242190000000004</v>
+        <v>5.8597130000000002</v>
       </c>
       <c r="D45" s="3">
-        <v>94.231170000000006</v>
+        <v>91.547910000000002</v>
       </c>
       <c r="E45" s="3">
-        <v>104.3188</v>
+        <v>103.71599999999999</v>
       </c>
       <c r="F45" s="3">
-        <v>4.888555E-2</v>
+        <v>4.8581909999999999E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.9982569</v>
+        <v>0.99847330000000001</v>
       </c>
       <c r="H45" s="3">
-        <v>6.7800600000000003E-2</v>
+        <v>6.7409339999999998E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>1.2966759999999999</v>
+        <v>1.2478149999999999</v>
       </c>
       <c r="J45" s="3">
-        <v>19.944880000000001</v>
+        <v>18.902069999999998</v>
       </c>
       <c r="K45" s="3">
-        <v>2.8758010000000001</v>
+        <v>7.4697709999999997</v>
       </c>
       <c r="L45" s="3">
-        <v>7.2576809999999998</v>
+        <v>17.846499999999999</v>
       </c>
       <c r="M45" s="3">
-        <v>2.0218889999999998</v>
+        <v>5.2517709999999997</v>
       </c>
       <c r="N45" s="3">
-        <v>0.6849864</v>
+        <v>0.6472869</v>
       </c>
       <c r="O45" s="3">
-        <v>996.25419999999997</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+        <v>996.23680000000002</v>
+      </c>
+      <c r="P45" s="3">
+        <v>46.85944361</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>-91.110764489999994</v>
+      </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45131.420706018522</v>
+        <v>45131.420949074076</v>
       </c>
       <c r="B46" s="3">
-        <v>9.3786850000000008</v>
+        <v>9.4712490000000003</v>
       </c>
       <c r="C46" s="3">
-        <v>5.5281229999999999</v>
+        <v>5.8741500000000002</v>
       </c>
       <c r="D46" s="3">
-        <v>94.1721</v>
+        <v>91.530360000000002</v>
       </c>
       <c r="E46" s="3">
-        <v>104.2704</v>
+        <v>103.7099</v>
       </c>
       <c r="F46" s="3">
-        <v>4.8862080000000002E-2</v>
+        <v>4.857889E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99825819999999998</v>
+        <v>0.99847419999999998</v>
       </c>
       <c r="H46" s="3">
-        <v>6.7777279999999995E-2</v>
+        <v>6.7407499999999995E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>1.301058</v>
+        <v>1.249196</v>
       </c>
       <c r="J46" s="3">
-        <v>19.935020000000002</v>
+        <v>18.895769999999999</v>
       </c>
       <c r="K46" s="3">
-        <v>2.897068</v>
+        <v>7.5180639999999999</v>
       </c>
       <c r="L46" s="3">
-        <v>7.3068289999999996</v>
+        <v>17.957799999999999</v>
       </c>
       <c r="M46" s="3">
-        <v>2.036842</v>
+        <v>5.2857250000000002</v>
       </c>
       <c r="N46" s="3">
-        <v>0.68456649999999997</v>
+        <v>0.64753349999999998</v>
       </c>
       <c r="O46" s="3">
-        <v>996.25570000000005</v>
-      </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+        <v>996.23850000000004</v>
+      </c>
+      <c r="P46" s="3">
+        <v>46.85944361</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>-91.110764489999994</v>
+      </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45131.420717592591</v>
+        <v>45131.420960648145</v>
       </c>
       <c r="B47" s="3">
-        <v>9.3920999999999992</v>
+        <v>9.4347359999999991</v>
       </c>
       <c r="C47" s="3">
-        <v>5.4583219999999999</v>
+        <v>5.8993089999999997</v>
       </c>
       <c r="D47" s="3">
-        <v>94.034300000000002</v>
+        <v>91.424809999999994</v>
       </c>
       <c r="E47" s="3">
-        <v>104.34229999999999</v>
+        <v>103.7081</v>
       </c>
       <c r="F47" s="3">
-        <v>4.8894899999999998E-2</v>
+        <v>4.8577269999999999E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99830730000000001</v>
+        <v>0.99848409999999999</v>
       </c>
       <c r="H47" s="3">
-        <v>6.7822499999999994E-2</v>
+        <v>6.7407999999999996E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>1.2054819999999999</v>
+        <v>1.239314</v>
       </c>
       <c r="J47" s="3">
-        <v>19.783390000000001</v>
+        <v>18.804030000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>3.5040909999999998</v>
+        <v>7.7804270000000004</v>
       </c>
       <c r="L47" s="3">
-        <v>8.7025500000000005</v>
+        <v>18.570920000000001</v>
       </c>
       <c r="M47" s="3">
-        <v>2.4636209999999998</v>
+        <v>5.4701849999999999</v>
       </c>
       <c r="N47" s="3">
-        <v>0.67668859999999997</v>
+        <v>0.64773139999999996</v>
       </c>
       <c r="O47" s="3">
-        <v>996.18949999999995</v>
-      </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+        <v>996.23869999999999</v>
+      </c>
+      <c r="P47" s="3">
+        <v>46.85944361</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>-91.110764489999994</v>
+      </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45131.420729166668</v>
+        <v>45131.420972222222</v>
       </c>
       <c r="B48" s="3">
-        <v>9.3933029999999995</v>
+        <v>9.4363390000000003</v>
       </c>
       <c r="C48" s="3">
-        <v>5.4543670000000004</v>
+        <v>5.9064199999999998</v>
       </c>
       <c r="D48" s="3">
-        <v>94.015029999999996</v>
+        <v>91.411929999999998</v>
       </c>
       <c r="E48" s="3">
-        <v>104.3378</v>
+        <v>103.7045</v>
       </c>
       <c r="F48" s="3">
-        <v>4.8892610000000003E-2</v>
+        <v>4.8575460000000001E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99831040000000004</v>
+        <v>0.99848479999999995</v>
       </c>
       <c r="H48" s="3">
-        <v>6.7819589999999999E-2</v>
+        <v>6.7407209999999995E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>1.2006939999999999</v>
+        <v>1.240362</v>
       </c>
       <c r="J48" s="3">
-        <v>19.771419999999999</v>
+        <v>18.79785</v>
       </c>
       <c r="K48" s="3">
-        <v>3.5436079999999999</v>
+        <v>7.8074849999999998</v>
       </c>
       <c r="L48" s="3">
-        <v>8.7935149999999993</v>
+        <v>18.633749999999999</v>
       </c>
       <c r="M48" s="3">
-        <v>2.4914049999999999</v>
+        <v>5.4892089999999998</v>
       </c>
       <c r="N48" s="3">
-        <v>0.67608009999999996</v>
+        <v>0.64791509999999997</v>
       </c>
       <c r="O48" s="3">
-        <v>996.18690000000004</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+        <v>996.23929999999996</v>
+      </c>
+      <c r="P48" s="3">
+        <v>46.85944361</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>-91.110764489999994</v>
+      </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45131.420740740738</v>
+        <v>45131.420983796299</v>
       </c>
       <c r="B49" s="3">
-        <v>9.3945059999999998</v>
+        <v>9.4379419999999996</v>
       </c>
       <c r="C49" s="3">
-        <v>5.4504130000000002</v>
+        <v>5.9135309999999999</v>
       </c>
       <c r="D49" s="3">
-        <v>93.995750000000001</v>
+        <v>91.399029999999996</v>
       </c>
       <c r="E49" s="3">
-        <v>104.3334</v>
+        <v>103.7009</v>
       </c>
       <c r="F49" s="3">
-        <v>4.8890309999999999E-2</v>
+        <v>4.8573650000000003E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99831349999999996</v>
+        <v>0.99848559999999997</v>
       </c>
       <c r="H49" s="3">
-        <v>6.7816680000000004E-2</v>
+        <v>6.7406430000000003E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>1.1959059999999999</v>
+        <v>1.2414099999999999</v>
       </c>
       <c r="J49" s="3">
-        <v>19.759440000000001</v>
+        <v>18.791679999999999</v>
       </c>
       <c r="K49" s="3">
-        <v>3.5831249999999999</v>
+        <v>7.834543</v>
       </c>
       <c r="L49" s="3">
-        <v>8.8844799999999999</v>
+        <v>18.696580000000001</v>
       </c>
       <c r="M49" s="3">
-        <v>2.5191880000000002</v>
+        <v>5.5082319999999996</v>
       </c>
       <c r="N49" s="3">
-        <v>0.6754715</v>
+        <v>0.64809859999999997</v>
       </c>
       <c r="O49" s="3">
-        <v>996.18430000000001</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+        <v>996.23990000000003</v>
+      </c>
+      <c r="P49" s="3">
+        <v>46.85944361</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>-91.110764489999994</v>
+      </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45131.420752314814</v>
+        <v>45131.420995370368</v>
       </c>
       <c r="B50" s="3">
-        <v>9.4075980000000001</v>
+        <v>9.3378080000000008</v>
       </c>
       <c r="C50" s="3">
-        <v>5.3726440000000002</v>
+        <v>5.7896989999999997</v>
       </c>
       <c r="D50" s="3">
-        <v>93.233329999999995</v>
+        <v>91.366590000000002</v>
       </c>
       <c r="E50" s="3">
-        <v>103.97620000000001</v>
+        <v>103.6904</v>
       </c>
       <c r="F50" s="3">
-        <v>4.8716349999999999E-2</v>
+        <v>4.8568189999999997E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99833099999999997</v>
+        <v>0.99849060000000001</v>
       </c>
       <c r="H50" s="3">
-        <v>6.7584539999999999E-2</v>
+        <v>6.7398739999999999E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>1.25373</v>
+        <v>1.2123520000000001</v>
       </c>
       <c r="J50" s="3">
-        <v>19.665320000000001</v>
+        <v>18.785869999999999</v>
       </c>
       <c r="K50" s="3">
-        <v>4.0554699999999997</v>
+        <v>8.3655609999999996</v>
       </c>
       <c r="L50" s="3">
-        <v>9.9734379999999998</v>
+        <v>19.922270000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>2.8512789999999999</v>
+        <v>5.8815749999999998</v>
       </c>
       <c r="N50" s="3">
-        <v>0.66764319999999999</v>
+        <v>0.64020049999999995</v>
       </c>
       <c r="O50" s="3">
-        <v>996.19100000000003</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+        <v>996.24839999999995</v>
+      </c>
+      <c r="P50" s="3">
+        <v>46.859438509999997</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>-91.110780800000001</v>
+      </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45131.420763888891</v>
+        <v>45131.421006944445</v>
       </c>
       <c r="B51" s="3">
-        <v>9.4086149999999993</v>
+        <v>9.3315579999999994</v>
       </c>
       <c r="C51" s="3">
-        <v>5.3667379999999998</v>
+        <v>5.7835590000000003</v>
       </c>
       <c r="D51" s="3">
-        <v>93.18777</v>
+        <v>91.362309999999994</v>
       </c>
       <c r="E51" s="3">
-        <v>103.958</v>
+        <v>103.6897</v>
       </c>
       <c r="F51" s="3">
-        <v>4.870741E-2</v>
+        <v>4.8567829999999999E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99833309999999997</v>
+        <v>0.99849100000000002</v>
       </c>
       <c r="H51" s="3">
-        <v>6.7572690000000005E-2</v>
+        <v>6.7398319999999998E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>1.254791</v>
+        <v>1.2105319999999999</v>
       </c>
       <c r="J51" s="3">
-        <v>19.656700000000001</v>
+        <v>18.783429999999999</v>
       </c>
       <c r="K51" s="3">
-        <v>4.0955139999999997</v>
+        <v>8.4010409999999993</v>
       </c>
       <c r="L51" s="3">
-        <v>10.065670000000001</v>
+        <v>20.00433</v>
       </c>
       <c r="M51" s="3">
-        <v>2.8794330000000001</v>
+        <v>5.9065190000000003</v>
       </c>
       <c r="N51" s="3">
-        <v>0.66703140000000005</v>
+        <v>0.63977189999999995</v>
       </c>
       <c r="O51" s="3">
-        <v>996.18979999999999</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+        <v>996.24879999999996</v>
+      </c>
+      <c r="P51" s="3">
+        <v>46.859438509999997</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>-91.110780800000001</v>
+      </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45131.420775462961</v>
+        <v>45131.421018518522</v>
       </c>
       <c r="B52" s="3">
-        <v>9.4096320000000002</v>
+        <v>9.32531</v>
       </c>
       <c r="C52" s="3">
-        <v>5.3608330000000004</v>
+        <v>5.7774200000000002</v>
       </c>
       <c r="D52" s="3">
-        <v>93.142200000000003</v>
+        <v>91.358029999999999</v>
       </c>
       <c r="E52" s="3">
-        <v>103.9397</v>
+        <v>103.6891</v>
       </c>
       <c r="F52" s="3">
-        <v>4.8698480000000002E-2</v>
+        <v>4.8567480000000003E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99833519999999998</v>
+        <v>0.99849160000000003</v>
       </c>
       <c r="H52" s="3">
-        <v>6.7560839999999997E-2</v>
+        <v>6.7397890000000002E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>1.255852</v>
+        <v>1.208712</v>
       </c>
       <c r="J52" s="3">
-        <v>19.64808</v>
+        <v>18.78098</v>
       </c>
       <c r="K52" s="3">
-        <v>4.1355579999999996</v>
+        <v>8.4365210000000008</v>
       </c>
       <c r="L52" s="3">
-        <v>10.1579</v>
+        <v>20.086390000000002</v>
       </c>
       <c r="M52" s="3">
-        <v>2.9075869999999999</v>
+        <v>5.9314640000000001</v>
       </c>
       <c r="N52" s="3">
-        <v>0.6664196</v>
+        <v>0.63934340000000001</v>
       </c>
       <c r="O52" s="3">
-        <v>996.18870000000004</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+        <v>996.24929999999995</v>
+      </c>
+      <c r="P52" s="3">
+        <v>46.85942842</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>-91.110771940000006</v>
+      </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45131.420787037037</v>
+        <v>45131.421030092592</v>
       </c>
       <c r="B53" s="3">
-        <v>9.3657380000000003</v>
+        <v>9.2748950000000008</v>
       </c>
       <c r="C53" s="3">
-        <v>5.3825450000000004</v>
+        <v>5.9149969999999996</v>
       </c>
       <c r="D53" s="3">
-        <v>92.836299999999994</v>
+        <v>91.170050000000003</v>
       </c>
       <c r="E53" s="3">
-        <v>103.7542</v>
+        <v>103.5605</v>
       </c>
       <c r="F53" s="3">
-        <v>4.8607869999999997E-2</v>
+        <v>4.8504800000000001E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99834849999999997</v>
+        <v>0.99849619999999994</v>
       </c>
       <c r="H53" s="3">
-        <v>6.7227690000000007E-2</v>
+        <v>6.7314299999999994E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>1.278259</v>
+        <v>1.2964800000000001</v>
       </c>
       <c r="J53" s="3">
-        <v>19.499310000000001</v>
+        <v>18.761600000000001</v>
       </c>
       <c r="K53" s="3">
-        <v>4.4898020000000001</v>
+        <v>8.6353190000000009</v>
       </c>
       <c r="L53" s="3">
-        <v>12.1389</v>
+        <v>20.543399999999998</v>
       </c>
       <c r="M53" s="3">
-        <v>3.5116700000000001</v>
+        <v>6.0712339999999996</v>
       </c>
       <c r="N53" s="3">
-        <v>0.65860280000000004</v>
+        <v>0.63144990000000001</v>
       </c>
       <c r="O53" s="3">
-        <v>996.24929999999995</v>
-      </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+        <v>996.19740000000002</v>
+      </c>
+      <c r="P53" s="3">
+        <v>46.859425729999998</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>-91.110751379999996</v>
+      </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45131.420798611114</v>
+        <v>45131.421041666668</v>
       </c>
       <c r="B54" s="3">
-        <v>9.363588</v>
+        <v>9.2698879999999999</v>
       </c>
       <c r="C54" s="3">
-        <v>5.3820009999999998</v>
+        <v>5.9197329999999999</v>
       </c>
       <c r="D54" s="3">
-        <v>92.801959999999994</v>
+        <v>91.158950000000004</v>
       </c>
       <c r="E54" s="3">
-        <v>103.73569999999999</v>
+        <v>103.5532</v>
       </c>
       <c r="F54" s="3">
-        <v>4.8598860000000001E-2</v>
+        <v>4.8501240000000001E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99834959999999995</v>
+        <v>0.99849659999999996</v>
       </c>
       <c r="H54" s="3">
-        <v>6.7203840000000001E-2</v>
+        <v>6.7309569999999999E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>1.2808349999999999</v>
+        <v>1.3006120000000001</v>
       </c>
       <c r="J54" s="3">
-        <v>19.488900000000001</v>
+        <v>18.760370000000002</v>
       </c>
       <c r="K54" s="3">
-        <v>4.5201799999999999</v>
+        <v>8.6585490000000007</v>
       </c>
       <c r="L54" s="3">
-        <v>12.273809999999999</v>
+        <v>20.596920000000001</v>
       </c>
       <c r="M54" s="3">
-        <v>3.5528089999999999</v>
+        <v>6.0875659999999998</v>
       </c>
       <c r="N54" s="3">
-        <v>0.65799030000000003</v>
+        <v>0.6308414</v>
       </c>
       <c r="O54" s="3">
-        <v>996.25279999999998</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+        <v>996.19479999999999</v>
+      </c>
+      <c r="P54" s="3">
+        <v>46.859425729999998</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>-91.110751379999996</v>
+      </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45131.420810185184</v>
+        <v>45131.421053240738</v>
       </c>
       <c r="B55" s="3">
-        <v>9.36144</v>
+        <v>9.2648820000000001</v>
       </c>
       <c r="C55" s="3">
-        <v>5.3814580000000003</v>
+        <v>5.9244690000000002</v>
       </c>
       <c r="D55" s="3">
-        <v>92.767610000000005</v>
+        <v>91.147840000000002</v>
       </c>
       <c r="E55" s="3">
-        <v>103.71720000000001</v>
+        <v>103.5459</v>
       </c>
       <c r="F55" s="3">
-        <v>4.8589849999999997E-2</v>
+        <v>4.8497680000000001E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99835070000000004</v>
+        <v>0.99849699999999997</v>
       </c>
       <c r="H55" s="3">
-        <v>6.7179989999999995E-2</v>
+        <v>6.7304829999999996E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>1.2834099999999999</v>
+        <v>1.304743</v>
       </c>
       <c r="J55" s="3">
-        <v>19.478480000000001</v>
+        <v>18.759139999999999</v>
       </c>
       <c r="K55" s="3">
-        <v>4.5505570000000004</v>
+        <v>8.6817810000000009</v>
       </c>
       <c r="L55" s="3">
-        <v>12.408720000000001</v>
+        <v>20.65044</v>
       </c>
       <c r="M55" s="3">
-        <v>3.5939489999999998</v>
+        <v>6.1038990000000002</v>
       </c>
       <c r="N55" s="3">
-        <v>0.65737780000000001</v>
+        <v>0.63023280000000004</v>
       </c>
       <c r="O55" s="3">
-        <v>996.25630000000001</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+        <v>996.19209999999998</v>
+      </c>
+      <c r="P55" s="3">
+        <v>46.859432030000001</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>-91.110763370000001</v>
+      </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45131.42082175926</v>
+        <v>45131.421064814815</v>
       </c>
       <c r="B56" s="3">
-        <v>9.4225119999999993</v>
+        <v>9.3334109999999999</v>
       </c>
       <c r="C56" s="3">
-        <v>5.5023429999999998</v>
+        <v>5.97342</v>
       </c>
       <c r="D56" s="3">
-        <v>92.129480000000001</v>
+        <v>91.133750000000006</v>
       </c>
       <c r="E56" s="3">
-        <v>103.6426</v>
+        <v>103.6246</v>
       </c>
       <c r="F56" s="3">
-        <v>4.8550490000000002E-2</v>
+        <v>4.8535200000000001E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99840839999999997</v>
+        <v>0.99851239999999997</v>
       </c>
       <c r="H56" s="3">
-        <v>6.7340419999999998E-2</v>
+        <v>6.7332619999999996E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>1.268983</v>
+        <v>1.309904</v>
       </c>
       <c r="J56" s="3">
-        <v>19.37069</v>
+        <v>18.692699999999999</v>
       </c>
       <c r="K56" s="3">
-        <v>5.5461159999999996</v>
+        <v>9.275601</v>
       </c>
       <c r="L56" s="3">
-        <v>13.56358</v>
+        <v>22.019369999999999</v>
       </c>
       <c r="M56" s="3">
-        <v>3.944922</v>
+        <v>6.5213970000000003</v>
       </c>
       <c r="N56" s="3">
-        <v>0.66501089999999996</v>
+        <v>0.62263380000000002</v>
       </c>
       <c r="O56" s="3">
-        <v>996.22310000000004</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+        <v>996.23400000000004</v>
+      </c>
+      <c r="P56" s="3">
+        <v>46.859432030000001</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>-91.110763370000001</v>
+      </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45131.42083333333</v>
+        <v>45131.421076388891</v>
       </c>
       <c r="B57" s="3">
-        <v>9.4249010000000002</v>
+        <v>9.3357740000000007</v>
       </c>
       <c r="C57" s="3">
-        <v>5.5095330000000002</v>
+        <v>5.9790739999999998</v>
       </c>
       <c r="D57" s="3">
-        <v>92.087130000000002</v>
+        <v>91.128659999999996</v>
       </c>
       <c r="E57" s="3">
-        <v>103.6343</v>
+        <v>103.62569999999999</v>
       </c>
       <c r="F57" s="3">
-        <v>4.8546249999999999E-2</v>
+        <v>4.8535719999999997E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99841190000000002</v>
+        <v>0.9985134</v>
       </c>
       <c r="H57" s="3">
-        <v>6.7341739999999997E-2</v>
+        <v>6.7332160000000002E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>1.268675</v>
+        <v>1.3121670000000001</v>
       </c>
       <c r="J57" s="3">
-        <v>19.3613</v>
+        <v>18.688759999999998</v>
       </c>
       <c r="K57" s="3">
-        <v>5.609477</v>
+        <v>9.3115210000000008</v>
       </c>
       <c r="L57" s="3">
-        <v>13.672929999999999</v>
+        <v>22.102150000000002</v>
       </c>
       <c r="M57" s="3">
-        <v>3.9782009999999999</v>
+        <v>6.5466499999999996</v>
       </c>
       <c r="N57" s="3">
-        <v>0.66525520000000005</v>
+        <v>0.6220521</v>
       </c>
       <c r="O57" s="3">
-        <v>996.22270000000003</v>
-      </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+        <v>996.23500000000001</v>
+      </c>
+      <c r="P57" s="3">
+        <v>46.859432030000001</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>-91.110763370000001</v>
+      </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45131.420844907407</v>
+        <v>45131.421087962961</v>
       </c>
       <c r="B58" s="3">
-        <v>9.427289</v>
+        <v>9.338139</v>
       </c>
       <c r="C58" s="3">
-        <v>5.516724</v>
+        <v>5.9847270000000004</v>
       </c>
       <c r="D58" s="3">
-        <v>92.044780000000003</v>
+        <v>91.123570000000001</v>
       </c>
       <c r="E58" s="3">
-        <v>103.626</v>
+        <v>103.62690000000001</v>
       </c>
       <c r="F58" s="3">
-        <v>4.8542019999999998E-2</v>
+        <v>4.8536240000000001E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99841539999999995</v>
+        <v>0.99851429999999997</v>
       </c>
       <c r="H58" s="3">
-        <v>6.7343070000000005E-2</v>
+        <v>6.733169E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>1.268367</v>
+        <v>1.3144290000000001</v>
       </c>
       <c r="J58" s="3">
-        <v>19.35191</v>
+        <v>18.684819999999998</v>
       </c>
       <c r="K58" s="3">
-        <v>5.6728389999999997</v>
+        <v>9.3474389999999996</v>
       </c>
       <c r="L58" s="3">
-        <v>13.78228</v>
+        <v>22.184930000000001</v>
       </c>
       <c r="M58" s="3">
-        <v>4.0114799999999997</v>
+        <v>6.571904</v>
       </c>
       <c r="N58" s="3">
-        <v>0.66549959999999997</v>
+        <v>0.62147039999999998</v>
       </c>
       <c r="O58" s="3">
-        <v>996.22220000000004</v>
-      </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+        <v>996.23599999999999</v>
+      </c>
+      <c r="P58" s="3">
+        <v>46.859432030000001</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>-91.110763370000001</v>
+      </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45131.420856481483</v>
+        <v>45131.421099537038</v>
       </c>
       <c r="B59" s="3">
-        <v>9.2382489999999997</v>
+        <v>9.1605419999999995</v>
       </c>
       <c r="C59" s="3">
-        <v>5.5546179999999996</v>
+        <v>5.8170999999999999</v>
       </c>
       <c r="D59" s="3">
-        <v>91.936220000000006</v>
+        <v>90.980959999999996</v>
       </c>
       <c r="E59" s="3">
-        <v>103.7393</v>
+        <v>103.602</v>
       </c>
       <c r="F59" s="3">
-        <v>4.8595640000000002E-2</v>
+        <v>4.8523249999999997E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>0.9984362</v>
+        <v>0.99851889999999999</v>
       </c>
       <c r="H59" s="3">
-        <v>6.742252E-2</v>
+        <v>6.7337980000000006E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>1.2953710000000001</v>
+        <v>1.359078</v>
       </c>
       <c r="J59" s="3">
-        <v>19.168600000000001</v>
+        <v>18.6449</v>
       </c>
       <c r="K59" s="3">
-        <v>5.9122339999999998</v>
+        <v>9.6935020000000005</v>
       </c>
       <c r="L59" s="3">
-        <v>14.301819999999999</v>
+        <v>22.985430000000001</v>
       </c>
       <c r="M59" s="3">
-        <v>4.1701350000000001</v>
+        <v>6.8152100000000004</v>
       </c>
       <c r="N59" s="3">
-        <v>0.6503215</v>
+        <v>0.62135200000000002</v>
       </c>
       <c r="O59" s="3">
-        <v>996.20389999999998</v>
-      </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
+        <v>996.18730000000005</v>
+      </c>
+      <c r="P59" s="3">
+        <v>46.859441449999998</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>-91.110764709999998</v>
+      </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45131.420868055553</v>
+        <v>45131.421111111114</v>
       </c>
       <c r="B60" s="3">
-        <v>9.2293219999999998</v>
+        <v>9.1526370000000004</v>
       </c>
       <c r="C60" s="3">
-        <v>5.5594349999999997</v>
+        <v>5.8093659999999998</v>
       </c>
       <c r="D60" s="3">
-        <v>91.915539999999993</v>
+        <v>90.973119999999994</v>
       </c>
       <c r="E60" s="3">
-        <v>103.7437</v>
+        <v>103.6023</v>
       </c>
       <c r="F60" s="3">
-        <v>4.8597630000000003E-2</v>
+        <v>4.8523339999999998E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99843859999999995</v>
+        <v>0.99851939999999995</v>
       </c>
       <c r="H60" s="3">
-        <v>6.7430439999999994E-2</v>
+        <v>6.7338869999999995E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>1.296529</v>
+        <v>1.3615470000000001</v>
       </c>
       <c r="J60" s="3">
-        <v>19.156099999999999</v>
+        <v>18.64141</v>
       </c>
       <c r="K60" s="3">
-        <v>5.9481619999999999</v>
+        <v>9.7243449999999996</v>
       </c>
       <c r="L60" s="3">
-        <v>14.356949999999999</v>
+        <v>23.05667</v>
       </c>
       <c r="M60" s="3">
-        <v>4.1869319999999997</v>
+        <v>6.8368950000000002</v>
       </c>
       <c r="N60" s="3">
-        <v>0.64966500000000005</v>
+        <v>0.62118070000000003</v>
       </c>
       <c r="O60" s="3">
-        <v>996.20209999999997</v>
-      </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+        <v>996.18560000000002</v>
+      </c>
+      <c r="P60" s="3">
+        <v>46.859441449999998</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>-91.110764709999998</v>
+      </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45131.42087962963</v>
+        <v>45131.421122685184</v>
       </c>
       <c r="B61" s="3">
-        <v>9.2203949999999999</v>
+        <v>9.1447319999999994</v>
       </c>
       <c r="C61" s="3">
-        <v>5.5642519999999998</v>
+        <v>5.8016319999999997</v>
       </c>
       <c r="D61" s="3">
-        <v>91.894869999999997</v>
+        <v>90.965280000000007</v>
       </c>
       <c r="E61" s="3">
-        <v>103.74809999999999</v>
+        <v>103.6026</v>
       </c>
       <c r="F61" s="3">
-        <v>4.8599610000000001E-2</v>
+        <v>4.8523419999999998E-2</v>
       </c>
       <c r="G61" s="3">
-        <v>0.99844100000000002</v>
+        <v>0.99851999999999996</v>
       </c>
       <c r="H61" s="3">
-        <v>6.7438360000000003E-2</v>
+        <v>6.7339750000000004E-2</v>
       </c>
       <c r="I61" s="3">
-        <v>1.297688</v>
+        <v>1.3640159999999999</v>
       </c>
       <c r="J61" s="3">
-        <v>19.14359</v>
+        <v>18.637910000000002</v>
       </c>
       <c r="K61" s="3">
-        <v>5.984089</v>
+        <v>9.7551880000000004</v>
       </c>
       <c r="L61" s="3">
-        <v>14.41208</v>
+        <v>23.12792</v>
       </c>
       <c r="M61" s="3">
-        <v>4.203729</v>
+        <v>6.8585799999999999</v>
       </c>
       <c r="N61" s="3">
-        <v>0.64900849999999999</v>
+        <v>0.62100949999999999</v>
       </c>
       <c r="O61" s="3">
-        <v>996.20029999999997</v>
-      </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+        <v>996.18389999999999</v>
+      </c>
+      <c r="P61" s="3">
+        <v>46.859441449999998</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>-91.110764709999998</v>
+      </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45131.420891203707</v>
+        <v>45131.421134259261</v>
       </c>
       <c r="B62" s="3">
-        <v>9.2923860000000005</v>
+        <v>9.1368270000000003</v>
       </c>
       <c r="C62" s="3">
-        <v>5.5902139999999996</v>
+        <v>5.7938980000000004</v>
       </c>
       <c r="D62" s="3">
-        <v>91.882570000000001</v>
+        <v>90.957440000000005</v>
       </c>
       <c r="E62" s="3">
-        <v>103.85939999999999</v>
+        <v>103.60290000000001</v>
       </c>
       <c r="F62" s="3">
-        <v>4.8652849999999997E-2</v>
+        <v>4.8523509999999999E-2</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99846089999999998</v>
+        <v>0.99852059999999998</v>
       </c>
       <c r="H62" s="3">
-        <v>6.7443240000000002E-2</v>
+        <v>6.7340629999999999E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>1.1873530000000001</v>
+        <v>1.3664849999999999</v>
       </c>
       <c r="J62" s="3">
-        <v>18.982420000000001</v>
+        <v>18.634409999999999</v>
       </c>
       <c r="K62" s="3">
-        <v>6.7743890000000002</v>
+        <v>9.7860309999999995</v>
       </c>
       <c r="L62" s="3">
-        <v>16.243680000000001</v>
+        <v>23.199159999999999</v>
       </c>
       <c r="M62" s="3">
-        <v>4.7628700000000004</v>
+        <v>6.8802640000000004</v>
       </c>
       <c r="N62" s="3">
-        <v>0.64087329999999998</v>
+        <v>0.62083820000000001</v>
       </c>
       <c r="O62" s="3">
-        <v>996.20889999999997</v>
-      </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+        <v>996.18219999999997</v>
+      </c>
+      <c r="P62" s="3">
+        <v>46.859441449999998</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>-91.110764709999998</v>
+      </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>45131.420902777776</v>
+        <v>45131.42114583333</v>
       </c>
       <c r="B63" s="3">
-        <v>9.2921490000000002</v>
+        <v>9.1477909999999998</v>
       </c>
       <c r="C63" s="3">
-        <v>5.5925060000000002</v>
+        <v>6.0162880000000003</v>
       </c>
       <c r="D63" s="3">
-        <v>91.879310000000004</v>
+        <v>90.980680000000007</v>
       </c>
       <c r="E63" s="3">
-        <v>103.86799999999999</v>
+        <v>103.70959999999999</v>
       </c>
       <c r="F63" s="3">
-        <v>4.8656940000000003E-2</v>
+        <v>4.857467E-2</v>
       </c>
       <c r="G63" s="3">
-        <v>0.99846259999999998</v>
+        <v>0.99852790000000002</v>
       </c>
       <c r="H63" s="3">
-        <v>6.7445229999999995E-2</v>
+        <v>6.7409549999999999E-2</v>
       </c>
       <c r="I63" s="3">
-        <v>1.181891</v>
+        <v>1.2735179999999999</v>
       </c>
       <c r="J63" s="3">
-        <v>18.969439999999999</v>
+        <v>18.576519999999999</v>
       </c>
       <c r="K63" s="3">
-        <v>6.8233730000000001</v>
+        <v>10.20533</v>
       </c>
       <c r="L63" s="3">
-        <v>16.356490000000001</v>
+        <v>24.167719999999999</v>
       </c>
       <c r="M63" s="3">
-        <v>4.7973090000000003</v>
+        <v>7.1750610000000004</v>
       </c>
       <c r="N63" s="3">
-        <v>0.64008900000000002</v>
+        <v>0.61306799999999995</v>
       </c>
       <c r="O63" s="3">
-        <v>996.20899999999995</v>
-      </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
+        <v>996.19870000000003</v>
+      </c>
+      <c r="P63" s="3">
+        <v>46.859436150000001</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>-91.11075323</v>
+      </c>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>45131.420914351853</v>
+        <v>45131.421157407407</v>
       </c>
       <c r="B64" s="3">
-        <v>9.2919099999999997</v>
+        <v>9.1444229999999997</v>
       </c>
       <c r="C64" s="3">
-        <v>5.5947990000000001</v>
+        <v>6.0238810000000003</v>
       </c>
       <c r="D64" s="3">
-        <v>91.876059999999995</v>
+        <v>90.978650000000002</v>
       </c>
       <c r="E64" s="3">
-        <v>103.8766</v>
+        <v>103.7145</v>
       </c>
       <c r="F64" s="3">
-        <v>4.8661030000000001E-2</v>
+        <v>4.8576979999999999E-2</v>
       </c>
       <c r="G64" s="3">
-        <v>0.99846409999999997</v>
+        <v>0.99852839999999998</v>
       </c>
       <c r="H64" s="3">
-        <v>6.7447220000000002E-2</v>
+        <v>6.7413169999999994E-2</v>
       </c>
       <c r="I64" s="3">
-        <v>1.1764289999999999</v>
+        <v>1.2698229999999999</v>
       </c>
       <c r="J64" s="3">
-        <v>18.956469999999999</v>
+        <v>18.572659999999999</v>
       </c>
       <c r="K64" s="3">
-        <v>6.872357</v>
+        <v>10.234590000000001</v>
       </c>
       <c r="L64" s="3">
-        <v>16.46931</v>
+        <v>24.235340000000001</v>
       </c>
       <c r="M64" s="3">
-        <v>4.8317480000000002</v>
+        <v>7.1956340000000001</v>
       </c>
       <c r="N64" s="3">
-        <v>0.6393046</v>
+        <v>0.6126663</v>
       </c>
       <c r="O64" s="3">
-        <v>996.20910000000003</v>
+        <v>996.19839999999999</v>
       </c>
       <c r="P64" s="3">
-        <v>46.859454839999998</v>
+        <v>46.859436150000001</v>
       </c>
       <c r="Q64" s="3">
-        <v>-91.110755269999999</v>
+        <v>-91.11075323</v>
       </c>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>45131.420925925922</v>
+        <v>45131.421168981484</v>
       </c>
       <c r="B65" s="3">
-        <v>9.4504599999999996</v>
+        <v>9.1410560000000007</v>
       </c>
       <c r="C65" s="3">
-        <v>5.845275</v>
+        <v>6.0314740000000002</v>
       </c>
       <c r="D65" s="3">
-        <v>91.565479999999994</v>
+        <v>90.976600000000005</v>
       </c>
       <c r="E65" s="3">
-        <v>103.72199999999999</v>
+        <v>103.7193</v>
       </c>
       <c r="F65" s="3">
-        <v>4.8584919999999997E-2</v>
+        <v>4.8579289999999997E-2</v>
       </c>
       <c r="G65" s="3">
-        <v>0.99847229999999998</v>
+        <v>0.99852890000000005</v>
       </c>
       <c r="H65" s="3">
-        <v>6.7411189999999996E-2</v>
+        <v>6.7416799999999999E-2</v>
       </c>
       <c r="I65" s="3">
-        <v>1.246435</v>
+        <v>1.2661290000000001</v>
       </c>
       <c r="J65" s="3">
-        <v>18.908359999999998</v>
+        <v>18.5688</v>
       </c>
       <c r="K65" s="3">
-        <v>7.4214779999999996</v>
+        <v>10.26385</v>
       </c>
       <c r="L65" s="3">
-        <v>17.735209999999999</v>
+        <v>24.302959999999999</v>
       </c>
       <c r="M65" s="3">
-        <v>5.2178190000000004</v>
+        <v>7.2162069999999998</v>
       </c>
       <c r="N65" s="3">
-        <v>0.64704030000000001</v>
+        <v>0.61226460000000005</v>
       </c>
       <c r="O65" s="3">
-        <v>996.23519999999996</v>
+        <v>996.19820000000004</v>
       </c>
       <c r="P65" s="3">
-        <v>46.85944361</v>
+        <v>46.859436150000001</v>
       </c>
       <c r="Q65" s="3">
-        <v>-91.110764489999994</v>
+        <v>-91.11075323</v>
       </c>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>45131.420937499999</v>
+        <v>45131.421180555553</v>
       </c>
       <c r="B66" s="3">
-        <v>9.4608550000000005</v>
+        <v>9.2448680000000003</v>
       </c>
       <c r="C66" s="3">
-        <v>5.8597130000000002</v>
+        <v>5.9759630000000001</v>
       </c>
       <c r="D66" s="3">
-        <v>91.547910000000002</v>
+        <v>91.00761</v>
       </c>
       <c r="E66" s="3">
-        <v>103.71599999999999</v>
+        <v>103.85469999999999</v>
       </c>
       <c r="F66" s="3">
-        <v>4.8581909999999999E-2</v>
+        <v>4.8644220000000002E-2</v>
       </c>
       <c r="G66" s="3">
-        <v>0.99847330000000001</v>
+        <v>0.9985368</v>
       </c>
       <c r="H66" s="3">
-        <v>6.7409339999999998E-2</v>
+        <v>6.7505460000000003E-2</v>
       </c>
       <c r="I66" s="3">
-        <v>1.2478149999999999</v>
+        <v>1.334757</v>
       </c>
       <c r="J66" s="3">
-        <v>18.902069999999998</v>
+        <v>18.56568</v>
       </c>
       <c r="K66" s="3">
-        <v>7.4697709999999997</v>
+        <v>10.65375</v>
       </c>
       <c r="L66" s="3">
-        <v>17.846499999999999</v>
+        <v>25.187249999999999</v>
       </c>
       <c r="M66" s="3">
-        <v>5.2517709999999997</v>
+        <v>7.4903329999999997</v>
       </c>
       <c r="N66" s="3">
-        <v>0.6472869</v>
+        <v>0.61222600000000005</v>
       </c>
       <c r="O66" s="3">
-        <v>996.23680000000002</v>
+        <v>996.19039999999995</v>
       </c>
       <c r="P66" s="3">
-        <v>46.85944361</v>
+        <v>46.859436150000001</v>
       </c>
       <c r="Q66" s="3">
-        <v>-91.110764489999994</v>
+        <v>-91.11075323</v>
       </c>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>45131.420949074076</v>
+        <v>45131.42119212963</v>
       </c>
       <c r="B67" s="3">
-        <v>9.4712490000000003</v>
+        <v>9.2502770000000005</v>
       </c>
       <c r="C67" s="3">
-        <v>5.8741500000000002</v>
+        <v>5.9778000000000002</v>
       </c>
       <c r="D67" s="3">
-        <v>91.530360000000002</v>
+        <v>91.009569999999997</v>
       </c>
       <c r="E67" s="3">
-        <v>103.7099</v>
+        <v>103.8639</v>
       </c>
       <c r="F67" s="3">
-        <v>4.857889E-2</v>
+        <v>4.8648629999999998E-2</v>
       </c>
       <c r="G67" s="3">
-        <v>0.99847419999999998</v>
+        <v>0.99853740000000002</v>
       </c>
       <c r="H67" s="3">
-        <v>6.7407499999999995E-2</v>
+        <v>6.7511470000000004E-2</v>
       </c>
       <c r="I67" s="3">
-        <v>1.249196</v>
+        <v>1.3362909999999999</v>
       </c>
       <c r="J67" s="3">
-        <v>18.895769999999999</v>
+        <v>18.564219999999999</v>
       </c>
       <c r="K67" s="3">
-        <v>7.5180639999999999</v>
+        <v>10.683120000000001</v>
       </c>
       <c r="L67" s="3">
-        <v>17.957799999999999</v>
+        <v>25.254239999999999</v>
       </c>
       <c r="M67" s="3">
-        <v>5.2857250000000002</v>
+        <v>7.5109779999999997</v>
       </c>
       <c r="N67" s="3">
-        <v>0.64753349999999998</v>
+        <v>0.61205379999999998</v>
       </c>
       <c r="O67" s="3">
-        <v>996.23850000000004</v>
+        <v>996.19039999999995</v>
       </c>
       <c r="P67" s="3">
-        <v>46.85944361</v>
+        <v>46.859426859999999</v>
       </c>
       <c r="Q67" s="3">
-        <v>-91.110764489999994</v>
+        <v>-91.110750519999996</v>
       </c>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>45131.420960648145</v>
+        <v>45131.421203703707</v>
       </c>
       <c r="B68" s="3">
-        <v>9.4347359999999991</v>
+        <v>9.2556849999999997</v>
       </c>
       <c r="C68" s="3">
-        <v>5.8993089999999997</v>
+        <v>5.9796389999999997</v>
       </c>
       <c r="D68" s="3">
-        <v>91.424809999999994</v>
+        <v>91.011529999999993</v>
       </c>
       <c r="E68" s="3">
-        <v>103.7081</v>
+        <v>103.87309999999999</v>
       </c>
       <c r="F68" s="3">
-        <v>4.8577269999999999E-2</v>
+        <v>4.865303E-2</v>
       </c>
       <c r="G68" s="3">
-        <v>0.99848409999999999</v>
+        <v>0.99853800000000004</v>
       </c>
       <c r="H68" s="3">
-        <v>6.7407999999999996E-2</v>
+        <v>6.7517469999999996E-2</v>
       </c>
       <c r="I68" s="3">
-        <v>1.239314</v>
+        <v>1.337826</v>
       </c>
       <c r="J68" s="3">
-        <v>18.804030000000001</v>
+        <v>18.562760000000001</v>
       </c>
       <c r="K68" s="3">
-        <v>7.7804270000000004</v>
+        <v>10.712479999999999</v>
       </c>
       <c r="L68" s="3">
-        <v>18.570920000000001</v>
+        <v>25.32124</v>
       </c>
       <c r="M68" s="3">
-        <v>5.4701849999999999</v>
+        <v>7.5316239999999999</v>
       </c>
       <c r="N68" s="3">
-        <v>0.64773139999999996</v>
+        <v>0.61188169999999997</v>
       </c>
       <c r="O68" s="3">
-        <v>996.23869999999999</v>
+        <v>996.19029999999998</v>
       </c>
       <c r="P68" s="3">
-        <v>46.85944361</v>
+        <v>46.859426859999999</v>
       </c>
       <c r="Q68" s="3">
-        <v>-91.110764489999994</v>
+        <v>-91.110750519999996</v>
       </c>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>45131.420972222222</v>
+        <v>45131.421215277776</v>
       </c>
       <c r="B69" s="3">
-        <v>9.4363390000000003</v>
+        <v>9.2644500000000001</v>
       </c>
       <c r="C69" s="3">
-        <v>5.9064199999999998</v>
+        <v>6.111974</v>
       </c>
       <c r="D69" s="3">
-        <v>91.411929999999998</v>
+        <v>90.892920000000004</v>
       </c>
       <c r="E69" s="3">
-        <v>103.7045</v>
+        <v>103.79470000000001</v>
       </c>
       <c r="F69" s="3">
-        <v>4.8575460000000001E-2</v>
+        <v>4.8614619999999997E-2</v>
       </c>
       <c r="G69" s="3">
-        <v>0.99848479999999995</v>
+        <v>0.99854270000000001</v>
       </c>
       <c r="H69" s="3">
-        <v>6.7407209999999995E-2</v>
+        <v>6.7474770000000003E-2</v>
       </c>
       <c r="I69" s="3">
-        <v>1.240362</v>
+        <v>1.4148099999999999</v>
       </c>
       <c r="J69" s="3">
-        <v>18.79785</v>
+        <v>18.49709</v>
       </c>
       <c r="K69" s="3">
-        <v>7.8074849999999998</v>
+        <v>10.79102</v>
       </c>
       <c r="L69" s="3">
-        <v>18.633749999999999</v>
+        <v>25.420739999999999</v>
       </c>
       <c r="M69" s="3">
-        <v>5.4892089999999998</v>
+        <v>7.6684400000000004</v>
       </c>
       <c r="N69" s="3">
-        <v>0.64791509999999997</v>
+        <v>0.59639050000000005</v>
       </c>
       <c r="O69" s="3">
-        <v>996.23929999999996</v>
+        <v>996.19</v>
       </c>
       <c r="P69" s="3">
-        <v>46.85944361</v>
+        <v>46.859426859999999</v>
       </c>
       <c r="Q69" s="3">
-        <v>-91.110764489999994</v>
+        <v>-91.110750519999996</v>
       </c>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>45131.420983796299</v>
+        <v>45131.421226851853</v>
       </c>
       <c r="B70" s="3">
-        <v>9.4379419999999996</v>
+        <v>9.2670530000000007</v>
       </c>
       <c r="C70" s="3">
-        <v>5.9135309999999999</v>
+        <v>6.1176570000000003</v>
       </c>
       <c r="D70" s="3">
-        <v>91.399029999999996</v>
+        <v>90.887469999999993</v>
       </c>
       <c r="E70" s="3">
-        <v>103.7009</v>
+        <v>103.7936</v>
       </c>
       <c r="F70" s="3">
-        <v>4.8573650000000003E-2</v>
+        <v>4.8614060000000001E-2</v>
       </c>
       <c r="G70" s="3">
-        <v>0.99848559999999997</v>
+        <v>0.99854310000000002</v>
       </c>
       <c r="H70" s="3">
-        <v>6.7406430000000003E-2</v>
+        <v>6.7474510000000001E-2</v>
       </c>
       <c r="I70" s="3">
-        <v>1.2414099999999999</v>
+        <v>1.4201699999999999</v>
       </c>
       <c r="J70" s="3">
-        <v>18.791679999999999</v>
+        <v>18.493600000000001</v>
       </c>
       <c r="K70" s="3">
-        <v>7.834543</v>
+        <v>10.803750000000001</v>
       </c>
       <c r="L70" s="3">
-        <v>18.696580000000001</v>
+        <v>25.445609999999999</v>
       </c>
       <c r="M70" s="3">
-        <v>5.5082319999999996</v>
+        <v>7.6815720000000001</v>
       </c>
       <c r="N70" s="3">
-        <v>0.64809859999999997</v>
+        <v>0.59559090000000003</v>
       </c>
       <c r="O70" s="3">
-        <v>996.23990000000003</v>
+        <v>996.18979999999999</v>
       </c>
       <c r="P70" s="3">
-        <v>46.85944361</v>
+        <v>46.859426859999999</v>
       </c>
       <c r="Q70" s="3">
-        <v>-91.110764489999994</v>
+        <v>-91.110750519999996</v>
       </c>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>45131.420995370368</v>
+        <v>45131.421238425923</v>
       </c>
       <c r="B71" s="3">
-        <v>9.3378080000000008</v>
+        <v>9.2696559999999995</v>
       </c>
       <c r="C71" s="3">
-        <v>5.7896989999999997</v>
+        <v>6.1233409999999999</v>
       </c>
       <c r="D71" s="3">
-        <v>91.366590000000002</v>
+        <v>90.882019999999997</v>
       </c>
       <c r="E71" s="3">
-        <v>103.6904</v>
+        <v>103.7925</v>
       </c>
       <c r="F71" s="3">
-        <v>4.8568189999999997E-2</v>
+        <v>4.8613509999999999E-2</v>
       </c>
       <c r="G71" s="3">
-        <v>0.99849060000000001</v>
+        <v>0.99854350000000003</v>
       </c>
       <c r="H71" s="3">
-        <v>6.7398739999999999E-2</v>
+        <v>6.7474259999999994E-2</v>
       </c>
       <c r="I71" s="3">
-        <v>1.2123520000000001</v>
+        <v>1.4255310000000001</v>
       </c>
       <c r="J71" s="3">
-        <v>18.785869999999999</v>
+        <v>18.490120000000001</v>
       </c>
       <c r="K71" s="3">
-        <v>8.3655609999999996</v>
+        <v>10.81648</v>
       </c>
       <c r="L71" s="3">
-        <v>19.922270000000001</v>
+        <v>25.470479999999998</v>
       </c>
       <c r="M71" s="3">
-        <v>5.8815749999999998</v>
+        <v>7.6947039999999998</v>
       </c>
       <c r="N71" s="3">
-        <v>0.64020049999999995</v>
+        <v>0.59479119999999996</v>
       </c>
       <c r="O71" s="3">
-        <v>996.24839999999995</v>
+        <v>996.18960000000004</v>
       </c>
       <c r="P71" s="3">
-        <v>46.859438509999997</v>
+        <v>46.859426859999999</v>
       </c>
       <c r="Q71" s="3">
-        <v>-91.110780800000001</v>
+        <v>-91.110750519999996</v>
       </c>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>45131.421006944445</v>
+        <v>45131.421249999999</v>
       </c>
       <c r="B72" s="3">
-        <v>9.3315579999999994</v>
+        <v>9.3447060000000004</v>
       </c>
       <c r="C72" s="3">
-        <v>5.7835590000000003</v>
+        <v>6.2685870000000001</v>
       </c>
       <c r="D72" s="3">
-        <v>91.362309999999994</v>
+        <v>90.880930000000006</v>
       </c>
       <c r="E72" s="3">
-        <v>103.6897</v>
+        <v>103.77379999999999</v>
       </c>
       <c r="F72" s="3">
-        <v>4.8567829999999999E-2</v>
+        <v>4.8604559999999998E-2</v>
       </c>
       <c r="G72" s="3">
-        <v>0.99849100000000002</v>
+        <v>0.99854209999999999</v>
       </c>
       <c r="H72" s="3">
-        <v>6.7398319999999998E-2</v>
+        <v>6.7454E-2</v>
       </c>
       <c r="I72" s="3">
-        <v>1.2105319999999999</v>
+        <v>1.4757910000000001</v>
       </c>
       <c r="J72" s="3">
-        <v>18.783429999999999</v>
+        <v>18.492940000000001</v>
       </c>
       <c r="K72" s="3">
-        <v>8.4010409999999993</v>
+        <v>11.0022</v>
       </c>
       <c r="L72" s="3">
-        <v>20.00433</v>
+        <v>25.55106</v>
       </c>
       <c r="M72" s="3">
-        <v>5.9065190000000003</v>
+        <v>7.7455040000000004</v>
       </c>
       <c r="N72" s="3">
-        <v>0.63977189999999995</v>
+        <v>0.61005120000000002</v>
       </c>
       <c r="O72" s="3">
-        <v>996.24879999999996</v>
+        <v>996.21550000000002</v>
       </c>
       <c r="P72" s="3">
-        <v>46.859438509999997</v>
+        <v>46.859417569999998</v>
       </c>
       <c r="Q72" s="3">
-        <v>-91.110780800000001</v>
+        <v>-91.110751199999996</v>
       </c>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>45131.421018518522</v>
+        <v>45131.421261574076</v>
       </c>
       <c r="B73" s="3">
-        <v>9.32531</v>
+        <v>9.348808</v>
       </c>
       <c r="C73" s="3">
-        <v>5.7774200000000002</v>
+        <v>6.2789400000000004</v>
       </c>
       <c r="D73" s="3">
-        <v>91.358029999999999</v>
+        <v>90.878370000000004</v>
       </c>
       <c r="E73" s="3">
-        <v>103.6891</v>
+        <v>103.77119999999999</v>
       </c>
       <c r="F73" s="3">
-        <v>4.8567480000000003E-2</v>
+        <v>4.8603319999999998E-2</v>
       </c>
       <c r="G73" s="3">
-        <v>0.99849160000000003</v>
+        <v>0.99854209999999999</v>
       </c>
       <c r="H73" s="3">
-        <v>6.7397890000000002E-2</v>
+        <v>6.7452100000000001E-2</v>
       </c>
       <c r="I73" s="3">
-        <v>1.208712</v>
+        <v>1.4800139999999999</v>
       </c>
       <c r="J73" s="3">
-        <v>18.78098</v>
+        <v>18.491669999999999</v>
       </c>
       <c r="K73" s="3">
-        <v>8.4365210000000008</v>
+        <v>11.01374</v>
       </c>
       <c r="L73" s="3">
-        <v>20.086390000000002</v>
+        <v>25.557970000000001</v>
       </c>
       <c r="M73" s="3">
-        <v>5.9314640000000001</v>
+        <v>7.7512259999999999</v>
       </c>
       <c r="N73" s="3">
-        <v>0.63934340000000001</v>
+        <v>0.6105083</v>
       </c>
       <c r="O73" s="3">
-        <v>996.24929999999995</v>
+        <v>996.21680000000003</v>
       </c>
       <c r="P73" s="3">
-        <v>46.85942842</v>
+        <v>46.859417569999998</v>
       </c>
       <c r="Q73" s="3">
-        <v>-91.110771940000006</v>
+        <v>-91.110751199999996</v>
       </c>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>45131.421030092592</v>
+        <v>45131.421273148146</v>
       </c>
       <c r="B74" s="3">
-        <v>9.2748950000000008</v>
+        <v>9.3529110000000006</v>
       </c>
       <c r="C74" s="3">
-        <v>5.9149969999999996</v>
+        <v>6.2892929999999998</v>
       </c>
       <c r="D74" s="3">
-        <v>91.170050000000003</v>
+        <v>90.875820000000004</v>
       </c>
       <c r="E74" s="3">
-        <v>103.5605</v>
+        <v>103.7687</v>
       </c>
       <c r="F74" s="3">
-        <v>4.8504800000000001E-2</v>
+        <v>4.8602090000000001E-2</v>
       </c>
       <c r="G74" s="3">
-        <v>0.99849619999999994</v>
+        <v>0.99854209999999999</v>
       </c>
       <c r="H74" s="3">
-        <v>6.7314299999999994E-2</v>
+        <v>6.7450200000000002E-2</v>
       </c>
       <c r="I74" s="3">
-        <v>1.2964800000000001</v>
+        <v>1.4842379999999999</v>
       </c>
       <c r="J74" s="3">
-        <v>18.761600000000001</v>
+        <v>18.490400000000001</v>
       </c>
       <c r="K74" s="3">
-        <v>8.6353190000000009</v>
+        <v>11.025270000000001</v>
       </c>
       <c r="L74" s="3">
-        <v>20.543399999999998</v>
+        <v>25.564889999999998</v>
       </c>
       <c r="M74" s="3">
-        <v>6.0712339999999996</v>
+        <v>7.7569480000000004</v>
       </c>
       <c r="N74" s="3">
-        <v>0.63144990000000001</v>
+        <v>0.61096539999999999</v>
       </c>
       <c r="O74" s="3">
-        <v>996.19740000000002</v>
+        <v>996.21810000000005</v>
       </c>
       <c r="P74" s="3">
-        <v>46.859425729999998</v>
+        <v>46.859417569999998</v>
       </c>
       <c r="Q74" s="3">
-        <v>-91.110751379999996</v>
+        <v>-91.110751199999996</v>
       </c>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>45131.421041666668</v>
+        <v>45131.421284722222</v>
       </c>
       <c r="B75" s="3">
-        <v>9.2698879999999999</v>
+        <v>9.2796760000000003</v>
       </c>
       <c r="C75" s="3">
-        <v>5.9197329999999999</v>
+        <v>6.7196930000000004</v>
       </c>
       <c r="D75" s="3">
-        <v>91.158950000000004</v>
+        <v>90.820790000000002</v>
       </c>
       <c r="E75" s="3">
-        <v>103.5532</v>
+        <v>103.6806</v>
       </c>
       <c r="F75" s="3">
-        <v>4.8501240000000001E-2</v>
+        <v>4.855955E-2</v>
       </c>
       <c r="G75" s="3">
-        <v>0.99849659999999996</v>
+        <v>0.99853999999999998</v>
       </c>
       <c r="H75" s="3">
-        <v>6.7309569999999999E-2</v>
+        <v>6.73927E-2</v>
       </c>
       <c r="I75" s="3">
-        <v>1.3006120000000001</v>
+        <v>1.410301</v>
       </c>
       <c r="J75" s="3">
-        <v>18.760370000000002</v>
+        <v>18.50564</v>
       </c>
       <c r="K75" s="3">
-        <v>8.6585490000000007</v>
+        <v>11.00468</v>
       </c>
       <c r="L75" s="3">
-        <v>20.596920000000001</v>
+        <v>25.569859999999998</v>
       </c>
       <c r="M75" s="3">
-        <v>6.0875659999999998</v>
+        <v>7.7632510000000003</v>
       </c>
       <c r="N75" s="3">
-        <v>0.6308414</v>
+        <v>0.61138210000000004</v>
       </c>
       <c r="O75" s="3">
-        <v>996.19479999999999</v>
+        <v>996.21010000000001</v>
       </c>
       <c r="P75" s="3">
-        <v>46.859425729999998</v>
+        <v>46.859417569999998</v>
       </c>
       <c r="Q75" s="3">
-        <v>-91.110751379999996</v>
+        <v>-91.110751199999996</v>
       </c>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>45131.421053240738</v>
+        <v>45131.421296296299</v>
       </c>
       <c r="B76" s="3">
-        <v>9.2648820000000001</v>
+        <v>9.277488</v>
       </c>
       <c r="C76" s="3">
-        <v>5.9244690000000002</v>
+        <v>6.745101</v>
       </c>
       <c r="D76" s="3">
-        <v>91.147840000000002</v>
+        <v>90.817899999999995</v>
       </c>
       <c r="E76" s="3">
-        <v>103.5459</v>
+        <v>103.6756</v>
       </c>
       <c r="F76" s="3">
-        <v>4.8497680000000001E-2</v>
+        <v>4.8557169999999997E-2</v>
       </c>
       <c r="G76" s="3">
-        <v>0.99849699999999997</v>
+        <v>0.99853990000000004</v>
       </c>
       <c r="H76" s="3">
-        <v>6.7304829999999996E-2</v>
+        <v>6.7389299999999999E-2</v>
       </c>
       <c r="I76" s="3">
-        <v>1.304743</v>
+        <v>1.407551</v>
       </c>
       <c r="J76" s="3">
-        <v>18.759139999999999</v>
+        <v>18.50648</v>
       </c>
       <c r="K76" s="3">
-        <v>8.6817810000000009</v>
+        <v>11.00764</v>
       </c>
       <c r="L76" s="3">
-        <v>20.65044</v>
+        <v>25.572040000000001</v>
       </c>
       <c r="M76" s="3">
-        <v>6.1038990000000002</v>
+        <v>7.7647320000000004</v>
       </c>
       <c r="N76" s="3">
-        <v>0.63023280000000004</v>
+        <v>0.61172490000000002</v>
       </c>
       <c r="O76" s="3">
-        <v>996.19209999999998</v>
+        <v>996.21029999999996</v>
       </c>
       <c r="P76" s="3">
-        <v>46.859432030000001</v>
+        <v>46.859417569999998</v>
       </c>
       <c r="Q76" s="3">
-        <v>-91.110763370000001</v>
+        <v>-91.110751199999996</v>
       </c>
       <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45131.421064814815</v>
-      </c>
-      <c r="B77" s="3">
-        <v>9.3334109999999999</v>
-      </c>
-      <c r="C77" s="3">
-        <v>5.97342</v>
-      </c>
-      <c r="D77" s="3">
-        <v>91.133750000000006</v>
-      </c>
-      <c r="E77" s="3">
-        <v>103.6246</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4.8535200000000001E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99851239999999997</v>
-      </c>
-      <c r="H77" s="3">
-        <v>6.7332619999999996E-2</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1.309904</v>
-      </c>
-      <c r="J77" s="3">
-        <v>18.692699999999999</v>
-      </c>
-      <c r="K77" s="3">
-        <v>9.275601</v>
-      </c>
-      <c r="L77" s="3">
-        <v>22.019369999999999</v>
-      </c>
-      <c r="M77" s="3">
-        <v>6.5213970000000003</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.62263380000000002</v>
-      </c>
-      <c r="O77" s="3">
-        <v>996.23400000000004</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.859432030000001</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.110763370000001</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45131.421076388891</v>
-      </c>
-      <c r="B78" s="3">
-        <v>9.3357740000000007</v>
-      </c>
-      <c r="C78" s="3">
-        <v>5.9790739999999998</v>
-      </c>
-      <c r="D78" s="3">
-        <v>91.128659999999996</v>
-      </c>
-      <c r="E78" s="3">
-        <v>103.62569999999999</v>
-      </c>
-      <c r="F78" s="3">
-        <v>4.8535719999999997E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.9985134</v>
-      </c>
-      <c r="H78" s="3">
-        <v>6.7332160000000002E-2</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1.3121670000000001</v>
-      </c>
-      <c r="J78" s="3">
-        <v>18.688759999999998</v>
-      </c>
-      <c r="K78" s="3">
-        <v>9.3115210000000008</v>
-      </c>
-      <c r="L78" s="3">
-        <v>22.102150000000002</v>
-      </c>
-      <c r="M78" s="3">
-        <v>6.5466499999999996</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.6220521</v>
-      </c>
-      <c r="O78" s="3">
-        <v>996.23500000000001</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.859432030000001</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.110763370000001</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45131.421087962961</v>
-      </c>
-      <c r="B79" s="3">
-        <v>9.338139</v>
-      </c>
-      <c r="C79" s="3">
-        <v>5.9847270000000004</v>
-      </c>
-      <c r="D79" s="3">
-        <v>91.123570000000001</v>
-      </c>
-      <c r="E79" s="3">
-        <v>103.62690000000001</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4.8536240000000001E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99851429999999997</v>
-      </c>
-      <c r="H79" s="3">
-        <v>6.733169E-2</v>
-      </c>
-      <c r="I79" s="3">
-        <v>1.3144290000000001</v>
-      </c>
-      <c r="J79" s="3">
-        <v>18.684819999999998</v>
-      </c>
-      <c r="K79" s="3">
-        <v>9.3474389999999996</v>
-      </c>
-      <c r="L79" s="3">
-        <v>22.184930000000001</v>
-      </c>
-      <c r="M79" s="3">
-        <v>6.571904</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.62147039999999998</v>
-      </c>
-      <c r="O79" s="3">
-        <v>996.23599999999999</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.859432030000001</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.110763370000001</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45131.421099537038</v>
-      </c>
-      <c r="B80" s="3">
-        <v>9.1605419999999995</v>
-      </c>
-      <c r="C80" s="3">
-        <v>5.8170999999999999</v>
-      </c>
-      <c r="D80" s="3">
-        <v>90.980959999999996</v>
-      </c>
-      <c r="E80" s="3">
-        <v>103.602</v>
-      </c>
-      <c r="F80" s="3">
-        <v>4.8523249999999997E-2</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99851889999999999</v>
-      </c>
-      <c r="H80" s="3">
-        <v>6.7337980000000006E-2</v>
-      </c>
-      <c r="I80" s="3">
-        <v>1.359078</v>
-      </c>
-      <c r="J80" s="3">
-        <v>18.6449</v>
-      </c>
-      <c r="K80" s="3">
-        <v>9.6935020000000005</v>
-      </c>
-      <c r="L80" s="3">
-        <v>22.985430000000001</v>
-      </c>
-      <c r="M80" s="3">
-        <v>6.8152100000000004</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.62135200000000002</v>
-      </c>
-      <c r="O80" s="3">
-        <v>996.18730000000005</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.859441449999998</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.110764709999998</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45131.421111111114</v>
-      </c>
-      <c r="B81" s="3">
-        <v>9.1526370000000004</v>
-      </c>
-      <c r="C81" s="3">
-        <v>5.8093659999999998</v>
-      </c>
-      <c r="D81" s="3">
-        <v>90.973119999999994</v>
-      </c>
-      <c r="E81" s="3">
-        <v>103.6023</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4.8523339999999998E-2</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99851939999999995</v>
-      </c>
-      <c r="H81" s="3">
-        <v>6.7338869999999995E-2</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1.3615470000000001</v>
-      </c>
-      <c r="J81" s="3">
-        <v>18.64141</v>
-      </c>
-      <c r="K81" s="3">
-        <v>9.7243449999999996</v>
-      </c>
-      <c r="L81" s="3">
-        <v>23.05667</v>
-      </c>
-      <c r="M81" s="3">
-        <v>6.8368950000000002</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.62118070000000003</v>
-      </c>
-      <c r="O81" s="3">
-        <v>996.18560000000002</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.859441449999998</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.110764709999998</v>
-      </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45131.421122685184</v>
-      </c>
-      <c r="B82" s="3">
-        <v>9.1447319999999994</v>
-      </c>
-      <c r="C82" s="3">
-        <v>5.8016319999999997</v>
-      </c>
-      <c r="D82" s="3">
-        <v>90.965280000000007</v>
-      </c>
-      <c r="E82" s="3">
-        <v>103.6026</v>
-      </c>
-      <c r="F82" s="3">
-        <v>4.8523419999999998E-2</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99851999999999996</v>
-      </c>
-      <c r="H82" s="3">
-        <v>6.7339750000000004E-2</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1.3640159999999999</v>
-      </c>
-      <c r="J82" s="3">
-        <v>18.637910000000002</v>
-      </c>
-      <c r="K82" s="3">
-        <v>9.7551880000000004</v>
-      </c>
-      <c r="L82" s="3">
-        <v>23.12792</v>
-      </c>
-      <c r="M82" s="3">
-        <v>6.8585799999999999</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.62100949999999999</v>
-      </c>
-      <c r="O82" s="3">
-        <v>996.18389999999999</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.859441449999998</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.110764709999998</v>
-      </c>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>45131.421134259261</v>
-      </c>
-      <c r="B83" s="3">
-        <v>9.1368270000000003</v>
-      </c>
-      <c r="C83" s="3">
-        <v>5.7938980000000004</v>
-      </c>
-      <c r="D83" s="3">
-        <v>90.957440000000005</v>
-      </c>
-      <c r="E83" s="3">
-        <v>103.60290000000001</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4.8523509999999999E-2</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.99852059999999998</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6.7340629999999999E-2</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1.3664849999999999</v>
-      </c>
-      <c r="J83" s="3">
-        <v>18.634409999999999</v>
-      </c>
-      <c r="K83" s="3">
-        <v>9.7860309999999995</v>
-      </c>
-      <c r="L83" s="3">
-        <v>23.199159999999999</v>
-      </c>
-      <c r="M83" s="3">
-        <v>6.8802640000000004</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0.62083820000000001</v>
-      </c>
-      <c r="O83" s="3">
-        <v>996.18219999999997</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46.859441449999998</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-91.110764709999998</v>
-      </c>
-      <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>45131.42114583333</v>
-      </c>
-      <c r="B84" s="3">
-        <v>9.1477909999999998</v>
-      </c>
-      <c r="C84" s="3">
-        <v>6.0162880000000003</v>
-      </c>
-      <c r="D84" s="3">
-        <v>90.980680000000007</v>
-      </c>
-      <c r="E84" s="3">
-        <v>103.70959999999999</v>
-      </c>
-      <c r="F84" s="3">
-        <v>4.857467E-2</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.99852790000000002</v>
-      </c>
-      <c r="H84" s="3">
-        <v>6.7409549999999999E-2</v>
-      </c>
-      <c r="I84" s="3">
-        <v>1.2735179999999999</v>
-      </c>
-      <c r="J84" s="3">
-        <v>18.576519999999999</v>
-      </c>
-      <c r="K84" s="3">
-        <v>10.20533</v>
-      </c>
-      <c r="L84" s="3">
-        <v>24.167719999999999</v>
-      </c>
-      <c r="M84" s="3">
-        <v>7.1750610000000004</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0.61306799999999995</v>
-      </c>
-      <c r="O84" s="3">
-        <v>996.19870000000003</v>
-      </c>
-      <c r="P84" s="3">
-        <v>46.859436150000001</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>-91.11075323</v>
-      </c>
-      <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>45131.421157407407</v>
-      </c>
-      <c r="B85" s="3">
-        <v>9.1444229999999997</v>
-      </c>
-      <c r="C85" s="3">
-        <v>6.0238810000000003</v>
-      </c>
-      <c r="D85" s="3">
-        <v>90.978650000000002</v>
-      </c>
-      <c r="E85" s="3">
-        <v>103.7145</v>
-      </c>
-      <c r="F85" s="3">
-        <v>4.8576979999999999E-2</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.99852839999999998</v>
-      </c>
-      <c r="H85" s="3">
-        <v>6.7413169999999994E-2</v>
-      </c>
-      <c r="I85" s="3">
-        <v>1.2698229999999999</v>
-      </c>
-      <c r="J85" s="3">
-        <v>18.572659999999999</v>
-      </c>
-      <c r="K85" s="3">
-        <v>10.234590000000001</v>
-      </c>
-      <c r="L85" s="3">
-        <v>24.235340000000001</v>
-      </c>
-      <c r="M85" s="3">
-        <v>7.1956340000000001</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0.6126663</v>
-      </c>
-      <c r="O85" s="3">
-        <v>996.19839999999999</v>
-      </c>
-      <c r="P85" s="3">
-        <v>46.859436150000001</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>-91.11075323</v>
-      </c>
-      <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>45131.421168981484</v>
-      </c>
-      <c r="B86" s="3">
-        <v>9.1410560000000007</v>
-      </c>
-      <c r="C86" s="3">
-        <v>6.0314740000000002</v>
-      </c>
-      <c r="D86" s="3">
-        <v>90.976600000000005</v>
-      </c>
-      <c r="E86" s="3">
-        <v>103.7193</v>
-      </c>
-      <c r="F86" s="3">
-        <v>4.8579289999999997E-2</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.99852890000000005</v>
-      </c>
-      <c r="H86" s="3">
-        <v>6.7416799999999999E-2</v>
-      </c>
-      <c r="I86" s="3">
-        <v>1.2661290000000001</v>
-      </c>
-      <c r="J86" s="3">
-        <v>18.5688</v>
-      </c>
-      <c r="K86" s="3">
-        <v>10.26385</v>
-      </c>
-      <c r="L86" s="3">
-        <v>24.302959999999999</v>
-      </c>
-      <c r="M86" s="3">
-        <v>7.2162069999999998</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0.61226460000000005</v>
-      </c>
-      <c r="O86" s="3">
-        <v>996.19820000000004</v>
-      </c>
-      <c r="P86" s="3">
-        <v>46.859436150000001</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>-91.11075323</v>
-      </c>
-      <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>45131.421180555553</v>
-      </c>
-      <c r="B87" s="3">
-        <v>9.2448680000000003</v>
-      </c>
-      <c r="C87" s="3">
-        <v>5.9759630000000001</v>
-      </c>
-      <c r="D87" s="3">
-        <v>91.00761</v>
-      </c>
-      <c r="E87" s="3">
-        <v>103.85469999999999</v>
-      </c>
-      <c r="F87" s="3">
-        <v>4.8644220000000002E-2</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.9985368</v>
-      </c>
-      <c r="H87" s="3">
-        <v>6.7505460000000003E-2</v>
-      </c>
-      <c r="I87" s="3">
-        <v>1.334757</v>
-      </c>
-      <c r="J87" s="3">
-        <v>18.56568</v>
-      </c>
-      <c r="K87" s="3">
-        <v>10.65375</v>
-      </c>
-      <c r="L87" s="3">
-        <v>25.187249999999999</v>
-      </c>
-      <c r="M87" s="3">
-        <v>7.4903329999999997</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0.61222600000000005</v>
-      </c>
-      <c r="O87" s="3">
-        <v>996.19039999999995</v>
-      </c>
-      <c r="P87" s="3">
-        <v>46.859436150000001</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>-91.11075323</v>
-      </c>
-      <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>45131.42119212963</v>
-      </c>
-      <c r="B88" s="3">
-        <v>9.2502770000000005</v>
-      </c>
-      <c r="C88" s="3">
-        <v>5.9778000000000002</v>
-      </c>
-      <c r="D88" s="3">
-        <v>91.009569999999997</v>
-      </c>
-      <c r="E88" s="3">
-        <v>103.8639</v>
-      </c>
-      <c r="F88" s="3">
-        <v>4.8648629999999998E-2</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0.99853740000000002</v>
-      </c>
-      <c r="H88" s="3">
-        <v>6.7511470000000004E-2</v>
-      </c>
-      <c r="I88" s="3">
-        <v>1.3362909999999999</v>
-      </c>
-      <c r="J88" s="3">
-        <v>18.564219999999999</v>
-      </c>
-      <c r="K88" s="3">
-        <v>10.683120000000001</v>
-      </c>
-      <c r="L88" s="3">
-        <v>25.254239999999999</v>
-      </c>
-      <c r="M88" s="3">
-        <v>7.5109779999999997</v>
-      </c>
-      <c r="N88" s="3">
-        <v>0.61205379999999998</v>
-      </c>
-      <c r="O88" s="3">
-        <v>996.19039999999995</v>
-      </c>
-      <c r="P88" s="3">
-        <v>46.859426859999999</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>-91.110750519999996</v>
-      </c>
-      <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>45131.421203703707</v>
-      </c>
-      <c r="B89" s="3">
-        <v>9.2556849999999997</v>
-      </c>
-      <c r="C89" s="3">
-        <v>5.9796389999999997</v>
-      </c>
-      <c r="D89" s="3">
-        <v>91.011529999999993</v>
-      </c>
-      <c r="E89" s="3">
-        <v>103.87309999999999</v>
-      </c>
-      <c r="F89" s="3">
-        <v>4.865303E-2</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0.99853800000000004</v>
-      </c>
-      <c r="H89" s="3">
-        <v>6.7517469999999996E-2</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1.337826</v>
-      </c>
-      <c r="J89" s="3">
-        <v>18.562760000000001</v>
-      </c>
-      <c r="K89" s="3">
-        <v>10.712479999999999</v>
-      </c>
-      <c r="L89" s="3">
-        <v>25.32124</v>
-      </c>
-      <c r="M89" s="3">
-        <v>7.5316239999999999</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0.61188169999999997</v>
-      </c>
-      <c r="O89" s="3">
-        <v>996.19029999999998</v>
-      </c>
-      <c r="P89" s="3">
-        <v>46.859426859999999</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-91.110750519999996</v>
-      </c>
-      <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>45131.421215277776</v>
-      </c>
-      <c r="B90" s="3">
-        <v>9.2644500000000001</v>
-      </c>
-      <c r="C90" s="3">
-        <v>6.111974</v>
-      </c>
-      <c r="D90" s="3">
-        <v>90.892920000000004</v>
-      </c>
-      <c r="E90" s="3">
-        <v>103.79470000000001</v>
-      </c>
-      <c r="F90" s="3">
-        <v>4.8614619999999997E-2</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0.99854270000000001</v>
-      </c>
-      <c r="H90" s="3">
-        <v>6.7474770000000003E-2</v>
-      </c>
-      <c r="I90" s="3">
-        <v>1.4148099999999999</v>
-      </c>
-      <c r="J90" s="3">
-        <v>18.49709</v>
-      </c>
-      <c r="K90" s="3">
-        <v>10.79102</v>
-      </c>
-      <c r="L90" s="3">
-        <v>25.420739999999999</v>
-      </c>
-      <c r="M90" s="3">
-        <v>7.6684400000000004</v>
-      </c>
-      <c r="N90" s="3">
-        <v>0.59639050000000005</v>
-      </c>
-      <c r="O90" s="3">
-        <v>996.19</v>
-      </c>
-      <c r="P90" s="3">
-        <v>46.859426859999999</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>-91.110750519999996</v>
-      </c>
-      <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>45131.421226851853</v>
-      </c>
-      <c r="B91" s="3">
-        <v>9.2670530000000007</v>
-      </c>
-      <c r="C91" s="3">
-        <v>6.1176570000000003</v>
-      </c>
-      <c r="D91" s="3">
-        <v>90.887469999999993</v>
-      </c>
-      <c r="E91" s="3">
-        <v>103.7936</v>
-      </c>
-      <c r="F91" s="3">
-        <v>4.8614060000000001E-2</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0.99854310000000002</v>
-      </c>
-      <c r="H91" s="3">
-        <v>6.7474510000000001E-2</v>
-      </c>
-      <c r="I91" s="3">
-        <v>1.4201699999999999</v>
-      </c>
-      <c r="J91" s="3">
-        <v>18.493600000000001</v>
-      </c>
-      <c r="K91" s="3">
-        <v>10.803750000000001</v>
-      </c>
-      <c r="L91" s="3">
-        <v>25.445609999999999</v>
-      </c>
-      <c r="M91" s="3">
-        <v>7.6815720000000001</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0.59559090000000003</v>
-      </c>
-      <c r="O91" s="3">
-        <v>996.18979999999999</v>
-      </c>
-      <c r="P91" s="3">
-        <v>46.859426859999999</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-91.110750519999996</v>
-      </c>
-      <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>45131.421238425923</v>
-      </c>
-      <c r="B92" s="3">
-        <v>9.2696559999999995</v>
-      </c>
-      <c r="C92" s="3">
-        <v>6.1233409999999999</v>
-      </c>
-      <c r="D92" s="3">
-        <v>90.882019999999997</v>
-      </c>
-      <c r="E92" s="3">
-        <v>103.7925</v>
-      </c>
-      <c r="F92" s="3">
-        <v>4.8613509999999999E-2</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0.99854350000000003</v>
-      </c>
-      <c r="H92" s="3">
-        <v>6.7474259999999994E-2</v>
-      </c>
-      <c r="I92" s="3">
-        <v>1.4255310000000001</v>
-      </c>
-      <c r="J92" s="3">
-        <v>18.490120000000001</v>
-      </c>
-      <c r="K92" s="3">
-        <v>10.81648</v>
-      </c>
-      <c r="L92" s="3">
-        <v>25.470479999999998</v>
-      </c>
-      <c r="M92" s="3">
-        <v>7.6947039999999998</v>
-      </c>
-      <c r="N92" s="3">
-        <v>0.59479119999999996</v>
-      </c>
-      <c r="O92" s="3">
-        <v>996.18960000000004</v>
-      </c>
-      <c r="P92" s="3">
-        <v>46.859426859999999</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>-91.110750519999996</v>
-      </c>
-      <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>45131.421249999999</v>
-      </c>
-      <c r="B93" s="3">
-        <v>9.3447060000000004</v>
-      </c>
-      <c r="C93" s="3">
-        <v>6.2685870000000001</v>
-      </c>
-      <c r="D93" s="3">
-        <v>90.880930000000006</v>
-      </c>
-      <c r="E93" s="3">
-        <v>103.77379999999999</v>
-      </c>
-      <c r="F93" s="3">
-        <v>4.8604559999999998E-2</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0.99854209999999999</v>
-      </c>
-      <c r="H93" s="3">
-        <v>6.7454E-2</v>
-      </c>
-      <c r="I93" s="3">
-        <v>1.4757910000000001</v>
-      </c>
-      <c r="J93" s="3">
-        <v>18.492940000000001</v>
-      </c>
-      <c r="K93" s="3">
-        <v>11.0022</v>
-      </c>
-      <c r="L93" s="3">
-        <v>25.55106</v>
-      </c>
-      <c r="M93" s="3">
-        <v>7.7455040000000004</v>
-      </c>
-      <c r="N93" s="3">
-        <v>0.61005120000000002</v>
-      </c>
-      <c r="O93" s="3">
-        <v>996.21550000000002</v>
-      </c>
-      <c r="P93" s="3">
-        <v>46.859417569999998</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>-91.110751199999996</v>
-      </c>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>45131.421261574076</v>
-      </c>
-      <c r="B94" s="3">
-        <v>9.348808</v>
-      </c>
-      <c r="C94" s="3">
-        <v>6.2789400000000004</v>
-      </c>
-      <c r="D94" s="3">
-        <v>90.878370000000004</v>
-      </c>
-      <c r="E94" s="3">
-        <v>103.77119999999999</v>
-      </c>
-      <c r="F94" s="3">
-        <v>4.8603319999999998E-2</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0.99854209999999999</v>
-      </c>
-      <c r="H94" s="3">
-        <v>6.7452100000000001E-2</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1.4800139999999999</v>
-      </c>
-      <c r="J94" s="3">
-        <v>18.491669999999999</v>
-      </c>
-      <c r="K94" s="3">
-        <v>11.01374</v>
-      </c>
-      <c r="L94" s="3">
-        <v>25.557970000000001</v>
-      </c>
-      <c r="M94" s="3">
-        <v>7.7512259999999999</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0.6105083</v>
-      </c>
-      <c r="O94" s="3">
-        <v>996.21680000000003</v>
-      </c>
-      <c r="P94" s="3">
-        <v>46.859417569999998</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-91.110751199999996</v>
-      </c>
-      <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>45131.421273148146</v>
-      </c>
-      <c r="B95" s="3">
-        <v>9.3529110000000006</v>
-      </c>
-      <c r="C95" s="3">
-        <v>6.2892929999999998</v>
-      </c>
-      <c r="D95" s="3">
-        <v>90.875820000000004</v>
-      </c>
-      <c r="E95" s="3">
-        <v>103.7687</v>
-      </c>
-      <c r="F95" s="3">
-        <v>4.8602090000000001E-2</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0.99854209999999999</v>
-      </c>
-      <c r="H95" s="3">
-        <v>6.7450200000000002E-2</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1.4842379999999999</v>
-      </c>
-      <c r="J95" s="3">
-        <v>18.490400000000001</v>
-      </c>
-      <c r="K95" s="3">
-        <v>11.025270000000001</v>
-      </c>
-      <c r="L95" s="3">
-        <v>25.564889999999998</v>
-      </c>
-      <c r="M95" s="3">
-        <v>7.7569480000000004</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0.61096539999999999</v>
-      </c>
-      <c r="O95" s="3">
-        <v>996.21810000000005</v>
-      </c>
-      <c r="P95" s="3">
-        <v>46.859417569999998</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>-91.110751199999996</v>
-      </c>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>45131.421284722222</v>
-      </c>
-      <c r="B96" s="3">
-        <v>9.2796760000000003</v>
-      </c>
-      <c r="C96" s="3">
-        <v>6.7196930000000004</v>
-      </c>
-      <c r="D96" s="3">
-        <v>90.820790000000002</v>
-      </c>
-      <c r="E96" s="3">
-        <v>103.6806</v>
-      </c>
-      <c r="F96" s="3">
-        <v>4.855955E-2</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0.99853999999999998</v>
-      </c>
-      <c r="H96" s="3">
-        <v>6.73927E-2</v>
-      </c>
-      <c r="I96" s="3">
-        <v>1.410301</v>
-      </c>
-      <c r="J96" s="3">
-        <v>18.50564</v>
-      </c>
-      <c r="K96" s="3">
-        <v>11.00468</v>
-      </c>
-      <c r="L96" s="3">
-        <v>25.569859999999998</v>
-      </c>
-      <c r="M96" s="3">
-        <v>7.7632510000000003</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0.61138210000000004</v>
-      </c>
-      <c r="O96" s="3">
-        <v>996.21010000000001</v>
-      </c>
-      <c r="P96" s="3">
-        <v>46.859417569999998</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-91.110751199999996</v>
-      </c>
-      <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>45131.421296296299</v>
-      </c>
-      <c r="B97" s="3">
-        <v>9.277488</v>
-      </c>
-      <c r="C97" s="3">
-        <v>6.745101</v>
-      </c>
-      <c r="D97" s="3">
-        <v>90.817899999999995</v>
-      </c>
-      <c r="E97" s="3">
-        <v>103.6756</v>
-      </c>
-      <c r="F97" s="3">
-        <v>4.8557169999999997E-2</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0.99853990000000004</v>
-      </c>
-      <c r="H97" s="3">
-        <v>6.7389299999999999E-2</v>
-      </c>
-      <c r="I97" s="3">
-        <v>1.407551</v>
-      </c>
-      <c r="J97" s="3">
-        <v>18.50648</v>
-      </c>
-      <c r="K97" s="3">
-        <v>11.00764</v>
-      </c>
-      <c r="L97" s="3">
-        <v>25.572040000000001</v>
-      </c>
-      <c r="M97" s="3">
-        <v>7.7647320000000004</v>
-      </c>
-      <c r="N97" s="3">
-        <v>0.61172490000000002</v>
-      </c>
-      <c r="O97" s="3">
-        <v>996.21029999999996</v>
-      </c>
-      <c r="P97" s="3">
-        <v>46.859417569999998</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>-91.110751199999996</v>
-      </c>
-      <c r="R97" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
